--- a/excels/Chicago.xlsx
+++ b/excels/Chicago.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="597">
   <si>
     <t>City</t>
   </si>
@@ -479,6 +479,1329 @@
   </si>
   <si>
     <t>It&amp;#39;s good.&lt;br&gt;&lt;br&gt;Interior is well designed, and the food is interesting. &lt;br&gt;&lt;br&gt;It&amp;#39;s one of those nice, posh, yuppie, tapas places where you go to feel fancy. Don&amp;#39;t get me wrong, I am a yuppie myself and I fully enjoyed my meal, but it&amp;#39;s more of a novelty for me.&lt;br&gt;&lt;br&gt;Go here for a date or something, not if you&amp;#39;re ravenously hungry.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Art Institute of Chicago</t>
+  </si>
+  <si>
+    <t>111 S Michigan Ave</t>
+  </si>
+  <si>
+    <t>Jason L.</t>
+  </si>
+  <si>
+    <t>Took the family here over the weekend. Wow! An incredible experience. Great tour of some of the blockbusters I remembered as a kid. &lt;br&gt;&lt;br&gt;Family loved it. Food at the restaurant was just OK.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Michelle G.</t>
+  </si>
+  <si>
+    <t>This is a world-class museum, comparable to the likes of the Metropolitan Museum of Art and the Louvre. The Art Institute is a must-visit for any art lover in Chicago, and has something for everybody. It&amp;#39;s such a peaceful place and a good place to spend hours if you need a break from the world. Its rotating exhibits are often really good, and I love stopping by as often as I can (not nearly as often as I&amp;#39;d like to) to check them out, as well as walk through their collections of Islamic textiles, Asian art, Impressionism, and anything else you might imagine.&lt;br&gt;&lt;br&gt;The Art Institute is surprisingly large, but not in an overwhelming way. I love that it has art from all eras and periods, and really caters to a wide range of tastes. The AIC is a gem, and one of my favorite museums in the world.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Dusty H.</t>
+  </si>
+  <si>
+    <t>One of the best museums in Chicago, maybe even in the entire country! I spent 3 hours in there and didn&amp;#39;t even see everything. Their impressive collection is very vast and massive. The information people there are very helpful and knowledgeable. One thing to note is that they rotate their pieces out, sometimes for months at a time. They said it was to loan the artwork out, or sometimes it was to preserve the pieces. It is a bummer when you come from out of town and can&amp;#39;t see some of your favorite pieces. Other than that I have nothing to complain about. This is one of my favorite things to do in Chicago.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Irene Y.</t>
+  </si>
+  <si>
+    <t>10/23/2018</t>
+  </si>
+  <si>
+    <t>It&amp;#39;s amazing. Nothing else to be said. Such a wonderful museum to explore for out of town folks. I discovered this by accident, but if you get there within 1 hour of closing the tickets are almost half price. It was amazing seeing American Gothic.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Zach S.</t>
+  </si>
+  <si>
+    <t>This is my home away from home and absolute sanctuary. Anyone who finds themselves in Chicago, either as resident or visitor, needs to spend at least a few hours in this gem of an institution. My current favorites:&lt;br&gt;&lt;br&gt;Always on View&lt;br&gt;1) The Rock by Peter Blume - Such a stunner; an allegory for humanity and our place and symbiosis, or lack thereof with the Earth. See it in the American Wing 1900-1950.&lt;br&gt;&lt;br&gt;2) Painting with Green Center by Kandinsky - I think Kandinsky&amp;#39;s work simply blows away what his contemporaries were doing (yes, even Picasso). See it in the Modern Wing, 3rd Floor&lt;br&gt;&lt;br&gt;3) The Geranium by Henri Matisse - Some of the best use of color I&amp;#39;ve ever seen. What a master. See it in the Modern Wing, 3rd Floor&lt;br&gt;&lt;br&gt;4) Haystack Series by Monet - Yes of course the AIC has a totally ridiculously extensive Impressionist collection (Thank you Ryerson and Palmer). But it never got better than the Haystacks by Monet. This series got Kandinsky into art. Enough said.&lt;br&gt;&lt;br&gt;5) The entire Bergman collection - The gold standard for collectors (sorry Edlis). Followed their hearts and not their wallets, and it shows. My highlights are The Banquet by Magritte and Gorky&amp;#39;s Self-Portrait, but it&amp;#39;s all amazing. &lt;br&gt;&lt;br&gt;I could list 50 more but want to attempt conciseness. Message me for more recommendations. &lt;br&gt;&lt;br&gt;Limited On View&lt;br&gt;&lt;br&gt;1) Finnish Painting by Pope.L  - A visual vocabulary for our time now. See it in Contemporary Art, 2nd Floor&lt;br&gt;&lt;br&gt;2) The Drawing Room by Nicole Eisenmann. One of the best artists alive.  See it in Contemporary Art, 2nd Floor&lt;br&gt;&lt;br&gt;What not to see: Many elements of the Edlis collection, especially the works by Koons and Hirst. All ego from the artists, galleries, and collectors convincing themselves that this stuff is important. Sorry for the cliche, but the emperor wears no clothes. (That being said, the Lichtenstein and Twombly in their collection are both incredible so I&amp;#39;m not a total hater).&lt;br&gt;&lt;br&gt;I live across the street from the AIC, so send me a message if you&amp;#39;d like a personalized tour free of charge :).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Pat W.</t>
+  </si>
+  <si>
+    <t>The art itself I would rate 5 stars. I just found a bit difficult to navigate in the museum. They could do a better job guiding the guests room by room.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Rhonda G.</t>
+  </si>
+  <si>
+    <t>Impressive variety and collections.  Many impressionists.  We could spend an entire day.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Joe B.</t>
+  </si>
+  <si>
+    <t>One of the coolest art museums I have ever been too. There are a number of cool art pieces by famous artists. They have a wide selection of different forms of art as well. Definitely worth checking out if you are visiting the city.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Kevin C.</t>
+  </si>
+  <si>
+    <t>Wow! Wow! One of the premiere museums of the world. Masterpieces all around and even if you are not that much into art you&amp;#39;ll recognize some of these gems. Situated right in mellinium park it is very easy to get to within downtown chicago via train or bus. The line to get in wasn&amp;#39;t too bad and it flowed quickly. About 10 min. midweek in autumn.&lt;br&gt;&lt;br&gt;The layout of the museum is great. Easily walkable to each exhibit and genre. The highlights for me were the Monet, Van Gough, Edward Hopper, and sculptures. Feel free to imitate your favorite Ferris Bueller scene. You&amp;#39;ll definitely get a lot of amazement and culture from some of these great priceless works of art.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Pete B.</t>
+  </si>
+  <si>
+    <t>Promote the arts, but be more inclusive of unknown artists; put it on the street; make it more accessible and open; pull in resources that wouldn&amp;#39;t ordinarily participate; the beauty of the Cloud Gate is its insistence that people become a part of it&lt;br&gt;&lt;br&gt;Don&amp;#39;t get me wrong, as I love museums and galleries, but there aren&amp;#39;t enough art parks; the institute is a great space and I hope they figure out how to let the art out&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Net B.</t>
+  </si>
+  <si>
+    <t>Lots of art collections to see. This place has several famous pieces such as Van Gogh, Monet, etc. Also, if you want to know more about American History and the past Chicago with portrait photography, this place is for you!&lt;br&gt;&lt;br&gt;Art Institute of Chicago is a must go place for people who love art museum! If I live in Chicago, I would definitely register for a membership here!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Susan K.</t>
+  </si>
+  <si>
+    <t>This is such a large museum you will always have something new to see. We visited the Floating World which is ancient Japanese prints. We gained a new appreciation of the simplicity of this work. We also saw the textiles of Islamic Art and a special exhibit on prayers around the world. A different kind of sensory pleasure can be found in the museum cafe on the lower level and it&amp;#39;s not to be missed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Anna C.</t>
+  </si>
+  <si>
+    <t>10/9/2018</t>
+  </si>
+  <si>
+    <t>I went there only because of Roy Lichtenstein and his comic images! However, I have found a lot of other works like Van Gogh&amp;#39;s bedroom, Islamic gallery, and other modern stuff. Was really fun and interesting!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sungmin S.</t>
+  </si>
+  <si>
+    <t>10/8/2018</t>
+  </si>
+  <si>
+    <t>This is my favorite art museum in the US.. best I&amp;#39;ve ever been to in recent years. I budgeted 2.5 hrs to be spent and it was most definitely not enough. Toward the end of my budgeted time, I was speeding through the sections hoping to squeeze the most possible pieces in before I had to leave... I don&amp;#39;t think I&amp;#39;ve ever done that at a museum before. I am a big Impressionist fan and was blown away by how incredible the section dedicated to it was here. And I couldn&amp;#39;t believe how beautiful this space overall! 1st floor galleries, 3rd floor modern art section, Chicago skyline you can see through the glass windows... even the museum store is fantastic. The only thing I didn&amp;#39;t like was how I had to cross the gallery cafe to get to another side of the building, but it is not a big deal.&lt;br&gt;&lt;br&gt;Take advantage of free admission with BoA credit card every first weekend of the month, but it&amp;#39;s most definitely worth paying full price for at any time. If I ever live in Chicago in the future I plan on becoming a member.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Skyfall K.</t>
+  </si>
+  <si>
+    <t>10/3/2018</t>
+  </si>
+  <si>
+    <t>I love this place so much in truth the people are nice compared to some of the museums I&amp;#39;ve visited.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>9/26/2018</t>
+  </si>
+  <si>
+    <t>Great place to see cool art and the rooftop has great views of the city when not covered for private events&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Karen F.</t>
+  </si>
+  <si>
+    <t>9/25/2018</t>
+  </si>
+  <si>
+    <t>This is another one of those places that is so amazing, that I don&amp;#39;t have enough superlatives to describe it. The place is so huge, and filled to the brim with incredible art, that half a day is barely enough to scratch the surface.&lt;br&gt;&lt;br&gt;My only complaint, if I had one, is that even with maps I kept getting lost and had trouble finding the exhibits I wanted to see. Plus, I felt like the restrooms were a little too hidden.&lt;br&gt;&lt;br&gt;Other than that, being able to see original art by the world&amp;#39;s most famous and talented artists was definitely awe-inspiring. I love that I could get so close to the pieces and really study the details.  Another benefit to the place being so large is that no one area was so crowded that I couldn&amp;#39;t take all the time I needed to ogle a masterpiece.&lt;br&gt;&lt;br&gt;My favorite piece of all was the Chagall&amp;#39;s America Windows exhibit. It was hidden in kind of out of the way place, but it is 100% worth it to find it.  Wow!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jen R.</t>
+  </si>
+  <si>
+    <t>As a life long Chicagoan I&amp;#39;ve been here many times over the course of my life. Finally I&amp;#39;m giving them a review! Although we don&amp;#39;t live in Chicago anymore I always try to make a trip while in town. They usually have fabulous exhibits and exhibitions coming as they are a major museum. They have not just world class art they have a great restaurant as well. They have all the greats art wise just name one and they have at least one if not two of them. They modern art wing is a must see with huge Jackson Pollack&amp;#39;s and more.... it&amp;#39;s a Chicago institution and the museum is well planned out and the staff is helpful. You can read other reviews below on this gem but please go it&amp;#39;s one of those places on Your museum bucket list to go to it should be! If you go you can take the &amp;#34;el&amp;#34; , bus, walk, Uber, Drive in the street can be a pain they do have a lot. It&amp;#39;s great to see during the holidays as they decorate the lions out front. Go and enjoy&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Maryana R.</t>
+  </si>
+  <si>
+    <t>9/23/2018</t>
+  </si>
+  <si>
+    <t>The Art Institute is one of most prominent Chicago attractions for everyone who loves art. It is mostly known for the impressionist paintings.  However,  besides the fabulous impressionists collection, I  also really like their modern art, ancient Greek/Roman section, and the Miniature Room collections. Every time I visit, I spend hours wandering through different rooms and reading  about people depicted in the paintings. My When I get hungry and tired,  I make my way to a cafe downstairs and sit by a fountain in a courtyard.  Afterward I  am energized and ready to explore the Art Institute again.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Helen V.</t>
+  </si>
+  <si>
+    <t>9/17/2018</t>
+  </si>
+  <si>
+    <t>Too far, and too much walking. I&amp;#39;ve got a better collection in my condo.  And don&amp;#39;t have to drop a lung walking up 2 flights of stairs to see a red dot in a square called modern art.  What I did like was the coffee in the outdoor cafe.  Ask for extra cream. &lt;br&gt;-Helen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Palmer R.</t>
+  </si>
+  <si>
+    <t>9/16/2018</t>
+  </si>
+  <si>
+    <t>This is certainly one of the great art museums in the US. We were fortunate to see a John Singer Sargeant exhibition.  I was surprised that the Art Institute had as many Sargeants as the Boston Fine Arts.  It was great seeing the different Impressionist pieces housed there.  Absolutely a must see.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Alden K.</t>
+  </si>
+  <si>
+    <t>This or the Met? This or the Lourve? These are the big questions that I asked myself before visiting. I don&amp;#39;t know why I thought it was a contest. But if it were a contest, the Art Institute of Chicago would be a contender!&lt;br&gt;&lt;br&gt;There are so many beautiful pieces, I&amp;#39;m so happy that I went. We arrived early and waited in a short line. Around the time the doors opened, the line grew exponentially. We didn&amp;#39;t buy the pre-tickets, they cost a tiny bit more, so we went without. We usually fast pass everything, but because we arrived early, it was not needed.&lt;br&gt;&lt;br&gt;We ate right before we arrived. We were able to stay for hours and enjoyed it immensely.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Brad B.</t>
+  </si>
+  <si>
+    <t>9/14/2018</t>
+  </si>
+  <si>
+    <t>Definitely make sure you have a full day if you plan on trying to see it all...this place is HUGE!  Located right next to Millenium Park it&amp;#39;s an easy walk from all the major areas of Chicago.  &lt;br&gt;&lt;br&gt;We stopped by the Art Institute of Chicago because of many recommendations and it was included on our CityPass.  It is split into two separate buildings, with one being more traditional and one being more modern.  Each building has multiple floors housing a ton of exhibits as you weave your way through all the hallways and corridors.  &lt;br&gt;&lt;br&gt;They have just about everything from a huge collection of impressionism art to suits of armor.  It was a great way to spend the day and a must stop location if you&amp;#39;re in the area.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Rou M.</t>
+  </si>
+  <si>
+    <t>9/11/2018</t>
+  </si>
+  <si>
+    <t>Used the Chicago city pass to get a fast pass entrance into the art institute. I don&amp;#39;t think a fast pass is necessary during the week, not sure if it&amp;#39;s a different story on the weekend.&lt;br&gt;There is a lot to see, there is a lot of European art, a smaller collection of American and Japanese art and some other ones. There are a good number of pottery pieces which I was happy about. Two things were a bit annoying. 1. They ask you to check your bag at random. There were a lot of people with bigger bags left in but they asked me to check in mine. (FYI $1. Not sure if you can get it and return it if you need something from it) so maybe take a very small bag to reduce the risk if you don&amp;#39;t want to check in things. 2. Some of the displays were very poorly labeled. There were a good number of pieces in one display and no numbers to see which description referred to which piece. Also in a lot of cases the description and the piece were placed far from each other. I wasted a lot of time trying to just match the descriptions to the pieces. Also some pieces were placed too far up out of sight or too far away to see the details.&lt;br&gt;Their alarm system was going off constantly as it seems to get triggered when people aren&amp;#39;t even touching things.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Lisa W.</t>
+  </si>
+  <si>
+    <t>It&amp;#39;s sooo big...I regret not coming here earlier...if I had longer time to stay, we would have stayed longer...but we did this in 2 hours. &lt;br&gt;&lt;br&gt;The line is long...we got the Chicago Explorer Pass, so it counts as fast pass, go to the receptionist and he&amp;#39;ll exchange it into tickets for you. Skip the whole line and save some time for some art! The ticketing lady did not tell us this and she was super rude. The guy who helped us was super nice though. &lt;br&gt;&lt;br&gt;There were many rooms and 3 floors. We initially took our time but noticed the time and had to go to dinner, so we started scanning through each room and couldn&amp;#39;t read everything. The art work in here is cool- they had a Van Gogh room...we aren&amp;#39;t art-loving people (but we enjoy seeing it) so we weren&amp;#39;t sure if the paintings in there were the real deal because there&amp;#39;s a Van Gogh museum in Amsterdam...do they share or something? Also the sculptures in the Asia exhibit were awesome...again we questioned the authenticity of it but asked a staff and she confirmed everything here is original and that just blew our minds!!! Crazy how well they are able to preserve it. We are glad we asked and came to see actual art!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Mehran F.</t>
+  </si>
+  <si>
+    <t>9/9/2018</t>
+  </si>
+  <si>
+    <t>LUXURY to the max at $150 per year.&lt;br&gt;I hope more and more people support this great institution, one of the very best museums in the world.&lt;br&gt;Lucky Chicagoans....&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Melissa B.</t>
+  </si>
+  <si>
+    <t>9/8/2018</t>
+  </si>
+  <si>
+    <t>After many work trips to Chicago, I finally enjoyed a personal trip, allowing an afternoon to enjoy this beautiful art institute.&lt;br&gt;&lt;br&gt;Ticket purchase at the entrance was swift, and they offer ticket combos to other attractions, such as the Willis Tower, if you so desire.&lt;br&gt;&lt;br&gt;There are three floors with endless exhibits covering many eras, styles and cultures. It is a beautiful, clean white space that is easy to navigate through, even on a busy weekend. The 1st floor is the largest but there are ample pieces on both the 2nd and 3rd floors as well.&lt;br&gt;&lt;br&gt;I would highly recommend a visit when you are in Chicago!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Edward W.</t>
+  </si>
+  <si>
+    <t>9/4/2018</t>
+  </si>
+  <si>
+    <t>Saw the museum for about 1.5 hours. Just the right amount of time to see all the highlights at a leisurely pace. Definitely could easily spend another 60-90 minutes here just exploring the European Art section. &lt;br&gt;&lt;br&gt;Interior is modern and spacious. Each gallery area has its own theme to go with the art. &lt;br&gt;&lt;br&gt;American Gothic, Monet water lilies, Nighthawks were definitely the highlights for me. &lt;br&gt;&lt;br&gt;Purchased the Sky tower &amp;amp; Art Institute combo pass in person. Saves about $6 and includes fast pass to sky deck in Willis Tower.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jen H.</t>
+  </si>
+  <si>
+    <t>9/2/2018</t>
+  </si>
+  <si>
+    <t>Wow, huge art institute!&lt;br&gt;&lt;br&gt;You can literally spend the entire day here admiring all the art pieces.&lt;br&gt;&lt;br&gt;The last time I was in Chicago, we came too late and the museum was closing. I made it this time!&lt;br&gt;&lt;br&gt;Love the Van Gogh and Andy Warhol pieces. Quite frankly, I don&amp;#39;t get modern art....&lt;br&gt;&lt;br&gt;My highlight was finally seeing American Gothic!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Gregory C.</t>
+  </si>
+  <si>
+    <t>Large art museum in the heart of downtown Chicago next to Millennium Park.&lt;br&gt;&lt;br&gt;$25 admission for non Chicago residents. &lt;br&gt;&lt;br&gt;Not a bad way to get your art on for a few hours before the main event at the friendly confines of Wrigley Field.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Ivonnie S.</t>
+  </si>
+  <si>
+    <t>8/31/2018</t>
+  </si>
+  <si>
+    <t>I was really impressed with the Art Institute of Chicago! I&amp;#39;m no art expert, but I do enjoy looking at a variety of art, and the Institute has an extensive collection - 3 floors and 2 connected buildings of everything from modern and contemporary art to architecture to Impressionism to photography to Asian art, etc.&lt;br&gt;&lt;br&gt;We spent ~3 hours in here and ended up skipping a few sections of the museum as we realized we were running out of time. I did get to see all of the exhibits that I was most interested in, but for a really thorough exploration of the museum, you could stay here for the entire day! So much to see.&lt;br&gt;&lt;br&gt;There were actually quite a few famous pieces that I recognized - Nighthawks (nighttime view of a diner with a few people inside), American Gothic (woman and farmer guy holding a pitchfork), lots of water lilies by Monet, Van Gogh&amp;#39;s self-portrait, Georgia O&amp;#39;Keeffe&amp;#39;s cow skulls and clouds, and more.&lt;br&gt;&lt;br&gt;Also really loved the intricate detail in the Thorne miniature rooms in the lower level!&lt;br&gt;&lt;br&gt;For lunch, they do have two cafes and a restaurant within the museum; but you can also exit the museum, eat nearby, and then re-enter with your ticket on the same day. No open drinks allowed inside (I chugged my coffee right outside the entrance), but water bottles are fine.&lt;br&gt;&lt;br&gt;Worth a visit? Definitely! This place is a treasure.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>A Z.</t>
+  </si>
+  <si>
+    <t>8/30/2018</t>
+  </si>
+  <si>
+    <t>I wouldn&amp;#39;t consider myself a &amp;#34;cultured&amp;#34; person. I don&amp;#39;t really care if people I know or don&amp;#39;t know believe I have a deep understanding or appreciation of art. &lt;br&gt;&lt;br&gt;But, after walking out of the museum I feel like I got to see some cool sh*t. &lt;br&gt;&lt;br&gt;And, let&amp;#39;s be real. If the pieces of art weren&amp;#39;t worth $50 million dollars a piece you&amp;#39;d feel less cultural gravity towards them, so there&amp;#39;s some materialism masquerading as people feeling cultured, but hey. Cool sh*t, right?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Clare M.</t>
+  </si>
+  <si>
+    <t>8/25/2018</t>
+  </si>
+  <si>
+    <t>This was fantastic. We came at 2 pm and it closes at 5 thinking it would be plenty of time - with one masterpiece after the next, how we wished we had just a little more time! Really enjoyed it. While the museum was busy on a Saturday, there was enough room so you never felt overcrowded. We did not pay to see the special exhibit but the rest was so good I found no need, although I am sure it was excellent since everything else was. There is a small cafe that serves coffee, wine, and desserts and such, but it was closed when we reached it around 4 pm. I would highly recommend this museum as a highlight of any visit to Chicago.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Nisa N.</t>
+  </si>
+  <si>
+    <t>8/23/2018</t>
+  </si>
+  <si>
+    <t>Great museum! We spent the entire day here and still didn&amp;#39;t have enough time to see everything. I loved the Charles White: A Retrospective exhibit, the contemporary art, textile art (Music and Movement: Rhythm in Textile Design sculptures), photography (Never a Lovely So Real: Photography and Film in Chicago, 1950-1980) and Islamic art exhibits. I didn&amp;#39;t like that they charge you extra for certain exhibits once you are in the museum even after paying a pricey admission fee and I took away a star for that. Also thought that the gift shop options were very limited. Could not find any prints of some of the artwork I really loved. The children&amp;#39;s program using the interactive map was awesome. Using a software, children select styles of art they like and the programs suggests work they may enjoy. Children get a printout of the map. They walk around the museum to find them and take notes or answer questions about the art. Once they&amp;#39;ve found everything they get a prize. Great way to get kids engaged. Stop by the museum gardens with the fountain if you get the chance, it&amp;#39;s so peaceful. Employees were very nice and helpful. They all seem to enjoy working here. Will visit again on future trips to Chicago.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Stephanie V.</t>
+  </si>
+  <si>
+    <t>8/21/2018</t>
+  </si>
+  <si>
+    <t>I really enjoyed my visit to the Art Institute of Chicago even though I only got to see the Impressionist part of the museum. I was here with a conference group that held a social afterhours, thus we were only granted access to part of the space. However, Impressionists are my favorite and the Art Institute has quite the collection on display. During my visit, I got to see a few Renoir&amp;#39;s that I had not seen before featuring flowers and portraits. There were plenty of Monet&amp;#39;s work, as well. Not his typical water lilies but rather landscapes. I was also surprised to see van Gogh&amp;#39;s &amp;#34;The Bedroom.&amp;#34; I have never seen it in person, and having studied it art classes it was the highlight of my visit. Additionally, there was one of van Gogh&amp;#39;s self-portraits that while still using van Gogh&amp;#39;s style of thick brush strokes, also exhibited a bit of pointillism. The reception was downstairs from the gallery and outside in the courtyard. The Art Institute&amp;#39;s staff was wonderful and made sure that when food ran out it was quickly replaced. There was a lot of options to eat and drink, making the event held here perfect for socializing.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Julie A.</t>
+  </si>
+  <si>
+    <t>The Art Institute is my favorite museum.   Their displays have been continuously evolving to be more remarkable over the years.  The cafeteria dining, both indoors and out, is good food, and a pleasant atmosphere.  A day spent here, is food for the soul.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sigh The O&amp;#39;Hare Delivery G.</t>
+  </si>
+  <si>
+    <t>8/20/2018</t>
+  </si>
+  <si>
+    <t>Look. Want real art, go to the Heritage museum of Asian art. Modern art is horrible, abstract art is obscene, and this place, while great customer service and layout, should be used for better art. Go to the Asian heritage museum, or stay out of this place.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Helene S.</t>
+  </si>
+  <si>
+    <t>8/19/2018</t>
+  </si>
+  <si>
+    <t>Talk to the Curators&lt;br&gt;&lt;br&gt;Good art museum. Nice Impressionst collection. Don&amp;#39;t miss the Chagall Windows, the Thorne miniature room collection, and the original trading floor of the Old Chicago Stock Exchange. &lt;br&gt;&lt;br&gt;Ask the curators or security guards about the modern art and you will hear some very interesting stories. Try to avoid bringing in a large bag as you will have a long line to check it in and out.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Tiffanie E.</t>
+  </si>
+  <si>
+    <t>8/18/2018</t>
+  </si>
+  <si>
+    <t>Worth the price of a trip to Chicago! This museum is amazing and while some of the workers are a tad rude, the art doesn&amp;#39;t snap at you or yell at you, so if you can ignore the nastiness it is amazing! Seeing some of the amazing art that I teach my high schoolers about every year brought tears to my eyes. &lt;br&gt;The layout is fantastic. Everything is labeled well. The museum itself is HUGE! I could easily spend 12 hours wandering around and still not truly see and soak in everything! The gift shop is large and designed so you want one of everything! &lt;br&gt;Definitely get the City pass if you can - you get the  audio tour included!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Heejin K.</t>
+  </si>
+  <si>
+    <t>8/14/2018</t>
+  </si>
+  <si>
+    <t>Loved it. I especially enjoyed the contemporary art section cuz they had a rich set of artworks from variety of backgrounds. I visited on Monday so not a lot of visitors were there... I even got to hang around Andy Warhol&amp;#39;s marilyn munroe alone for like... 5 minutes ( which usually doesnt happen in crowdy museums right?).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>C R.</t>
+  </si>
+  <si>
+    <t>If you come from Europe, and have seen a few museums (e.g. Louvre, British, Musee d&amp;#39;Orsay for impressionists, etc.) you will probably be disappointed at this museum (given the hype on this museum in all tourist attraction guides). They have some very nice pieces of art, but definitely much smaller collections. This said, if you have not been to any of the above-mentioned museums (or the Met in New York), it is definitely a must see and very worth it.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Marc R.</t>
+  </si>
+  <si>
+    <t>8/13/2018</t>
+  </si>
+  <si>
+    <t>This place has been a staple for my wife and I. So tasteful, full of magnificent works of art, contributing to the community, and treating its members well. If you&amp;#39;re visiting, you must stop by. You won&amp;#39;t regret it! If you&amp;#39;re a local, become a member. You get complimentary coffee in the members seating area and get to bring a guest. What more could you ask for for around $100 a year??&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jennie M.</t>
+  </si>
+  <si>
+    <t>8/11/2018</t>
+  </si>
+  <si>
+    <t>What can I say.... amazing! We spent 4 1/2 hours (about 20 min of that to eat) and we didn&amp;#39;t see everything. I highly recommended to everyone! I will be back. You can take pics of everything (just no flash). The people that work there are very helpful! I see them helping numerous people and seemed happy to do so. We upgraded to the fast pass and for me it was worth the extra $. I knew it&amp;#39;s be busy on a Saturday afternoon and there as a line but we were able to walk right thru. No waiting. It can get confusing as to what is where and where you are in the building but it&amp;#39;s still all so wonderful. I will definitely go back again.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Edward A.</t>
+  </si>
+  <si>
+    <t>8/5/2018</t>
+  </si>
+  <si>
+    <t>Wow. I&amp;#39;m not big into museums and I&amp;#39;m not big into art but this was a very enjoyable experience. Seeing familiar art throughout made this an incredible visit. &lt;br&gt;&lt;br&gt;The museum is organized and well with many employees throughout. It has a great layout and there&amp;#39;s enough space to enjoy and not feel too crowded other than the really popular pieces. If you go early on a weekday when they open, I think you could easily enjoy a couple of hours with little traffic. &lt;br&gt;&lt;br&gt;If you&amp;#39;re in Chicago and just have one day to be a tourist, the Art Institute should be at the top of your list. Well worth the price of admission I would not hesitate to return. Also included in the City Pass we purchased.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Reber C.</t>
+  </si>
+  <si>
+    <t>8/4/2018</t>
+  </si>
+  <si>
+    <t>Easily four stars. Not sure how to post half a star yet to make it four and a half but this place is really, really good and well-executed. The restaurant in the Modern Wing leaves a lot to be desired but this one off the courtyard in the center of the Art Institute is excellent from greeting to service to food to returning to the galleries. Highly recommended!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Alison L.</t>
+  </si>
+  <si>
+    <t>Love this place. &lt;br&gt;&lt;br&gt;Letting you guys know...it&amp;#39;s free on Thursdays for Illinois residents from 5-8pm and it&amp;#39;s so worth coming here (regular admission for adults is $20+) (you also have to check in backpacks and larger items for $1 each item- but hey, it&amp;#39;s just a dollar). &lt;br&gt;&lt;br&gt;It&amp;#39;s such a beautiful museum. The interior is wonderful to just look at. And they have such amazing exhibits! &lt;br&gt;&lt;br&gt;When I went around July 19, one of my favorite exhibits they had was this collection of miniature rooms. You can to peer into rooms made to represent different eras in United States history from different states, and there were also French, English, German, and a couple of Japanese rooms too. I don&amp;#39;t know how to begin to describe it, but it&amp;#39;s something you should really see because you can really get a feel of each time period, and you&amp;#39;d be blown away by the detail of each room and just how beautiful each looks. &lt;br&gt;&lt;br&gt;Ahh, I could go on and on about this place. But a couple of other things I wanted to point out- it currently houses the famous &amp;#34;A Sunday Afternoon on the Island of La Grande Jatte&amp;#34; painting by Georges Seurat, and it&amp;#39;s something you have to look at from far away to appreciate the whole picture, then up close to appreciate and be awestruck by the finer details that went into making the whole thing.&lt;br&gt;&lt;br&gt;I absolutely love Monet, and this museum has one of the largest collections of Monet paintings that I have ever seen. &lt;br&gt;&lt;br&gt;Just go here. If you&amp;#39;re a museum lover, art lover, want something to do, whatever- it&amp;#39;s seriously worth a visit. I&amp;#39;ll be coming back every so often.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Mollygrace H.</t>
+  </si>
+  <si>
+    <t>8/1/2018</t>
+  </si>
+  <si>
+    <t>AMAZING! so beautiful. spend the best day here, other people there were pretty rude that&amp;#39;s the only thing that was bad though. An already planning another trip back!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Dena M.</t>
+  </si>
+  <si>
+    <t>Go to the lower level and see the miniatures!! It was by far the best part. Buy the fast pass!! Skip the gift shop. It was way overpriced.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Fei C.</t>
+  </si>
+  <si>
+    <t>7/29/2018</t>
+  </si>
+  <si>
+    <t>We bought a Go City Pass n the Art Institute was one of the attractions to choose from...The museum has quite a large collection of paintings n artifacts from all over the world...My favorite is American Gothic :)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chinarider B.</t>
+  </si>
+  <si>
+    <t>I love this museum, but it&amp;#39;s grossly out of reach financially for the average person. $35+ for fast pass and they never even told me there were no lines + another $7 for the special exhibits. I could have paid $10 less as a result, but even in NYC most of the museums are a suggested donation. &lt;br&gt;&lt;br&gt;The Charles White and Singer exhibits were fabulous.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Nathan G.</t>
+  </si>
+  <si>
+    <t>7/26/2018</t>
+  </si>
+  <si>
+    <t>The art is 5 stars. Waiting in line for an hour to get in is 0 stars at best. They had two people selling tickets at peak entrance time. Why? Get more ticket sellers at peak times then send those workers off to do other tasks. Or get electronic check ins. Buying tickets on line was more expensive. Why?  Art 5 stars check in 0 stars.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Erin B.</t>
+  </si>
+  <si>
+    <t>7/25/2018</t>
+  </si>
+  <si>
+    <t>Probably can&amp;#39;t add more to the already glowing reviews of this place. I got here on Saturday morning about a half an hour before it opened. We started queuing up about 5 min ahead of time. &lt;br&gt;&lt;br&gt;If you have a pass or bought ticket ahead of time you don&amp;#39;t really need to get there that early, but if you buying tickets at the museum get there early. It got really crowded&lt;br&gt;&lt;br&gt;There is so much to see here. I gave myself a 3 hour time limit  and I didn&amp;#39;t even get to see everything. The impressionist gallery was incredible. Coming here was one of the highlights of my trip.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Grace L.</t>
+  </si>
+  <si>
+    <t>7/23/2018</t>
+  </si>
+  <si>
+    <t>I absolutely loved this museum! Wish I had more time here so I could more carefully look at everything, we only had 2 hours to quickly walk through the majority of the exhibits. The collections and area is expansive to the point that you can get lost in there without a map. Especially enjoyed the medieval armor and impressionist galleries. Staff are helpful, bathrooms are plentiful and clean. This place puts every other art museum I&amp;#39;ve been to so far to shame!&lt;br&gt;&lt;br&gt;During busy season there are long lines at the entrance. Chicago Go pass and special passes have separate line to get in and bypass the regular line.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Taylor K.</t>
+  </si>
+  <si>
+    <t>7/19/2018</t>
+  </si>
+  <si>
+    <t>The art institute is a world class display of art. Well-organized, beautifully classified, and expertly curated, the art here is always impressive and educational. The photo exhibits are always thought provoking. Currently(2018) there are some wonderful photos exhibiting black Muslims in the city of Chicago, an often untold story that highlights the charms of the fair Windy City. I spent the majority of my extra time in he Charles White exhibit, he is now one of my favorite artists. I recommend that you spend a full day here if you truly want an opportunity to enjoy all the museum has to offer.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Claudine V.</t>
+  </si>
+  <si>
+    <t>Time to spare before the airport but not enough time to see this magical place. The paintings , art are incredible. A must see. Paid $25 dollars for entrance fee plus additional $7 to see Special exhibition of John Singer Sargent. Was able to see Monet, Manet and van Gogh, Seurat and my favorite.......Jean Leon Gerome for the Portrait of a Woman. &lt;br&gt;If you have time, definitely stop by this museum!! Trust!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Cesar W.</t>
+  </si>
+  <si>
+    <t>7/18/2018</t>
+  </si>
+  <si>
+    <t>Been here several times.  Studied at the school during summer courses.  The collection is outstanding but leave a whole day to view the collection, the building is confusing and if you&amp;#39;re not careful you will get lost and miss some cool galleries.&lt;br&gt;&lt;br&gt;I went this time to specifically check out the new CONTEMPORARY WING I was not disappointed.  The art was great; there was a great mix of 1950&amp;#39;s modern art to pieces that were completed this year.  The special exhibit of Cy Twombly blew me away.  The collection is large, colorful and moving.&lt;br&gt;&lt;br&gt;The only disappointment was the gift shops, things were tacky and over priced. I was willing to spend some money on a nice piece of jewelry but it was all crap or way too expensive.  My poster was even $18 and it&amp;#39;s not mounted or framed.  The books are outdated and old.  Other than that you&amp;#39;ve gotta stop by and take a look, they have a little something for everyone.  And a whole gallery of Toulouse Lautrec near the grand stair case!!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Mike K.</t>
+  </si>
+  <si>
+    <t>7/17/2018</t>
+  </si>
+  <si>
+    <t>What can I add to many perceptive reviews?  Well, we visited Monday morning at opening time and had a minimal wait at the Modern Wing entrance.  We never felt crowded or rushed on any way.  2.5 hours was just enough time to see everything but a true art lover could spend much longer.&lt;br&gt;&lt;br&gt;The chance to see Monet, Picasso and other immortals should not be missed.  As an electric utility retiree I was pleasantly surprised to see The Lineman, a 1927 painting that pays homage to its subject.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jacob R.</t>
+  </si>
+  <si>
+    <t>7/16/2018</t>
+  </si>
+  <si>
+    <t>I had 2 hours to kill in Chicago by myself so I purchased a student ticket online($21) and took the train over. I got there right at 10:15 am and there was a huge line outside. I thought &amp;#34;great, I won&amp;#39;t get any time in here&amp;#34; but then an employee said if you pre-bought a ticket you can go right in via the members entrance! (That is a #pro-tip as you will have no waiting!) There were 0 people at that door, so I went right in, checked my bags for $2 and was alone on the second floor looking at the most amazing art I have ever seen for at least 45 mins. It was bliss. As I got around there were a lot of people but it was never too crowded. This place is huge, much much bigger than I thought it would be and I missed out on a few things due to my time constraint but what I did get to see was worth the admission over and over.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Steve S.</t>
+  </si>
+  <si>
+    <t>7/14/2018</t>
+  </si>
+  <si>
+    <t>If you like art, and you are planning a trip to Chicago, this is a must see. Plan to spend a half to two days here. Great variety, helpful staff. Some true masterpieces in their collections. Truly an icon for Chicago tourism. Must see, must do.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Wrath N.</t>
+  </si>
+  <si>
+    <t>7/13/2018</t>
+  </si>
+  <si>
+    <t>Cool place. But you need to stop charging people to check their bags. Tourists shouldn&amp;#39;t be charged for being a tourist. Of course they&amp;#39;re gonna bring belongings. Either include it in the ticket price, or better yet DO AWAY WITH IT.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Lidia T.</t>
+  </si>
+  <si>
+    <t>7/11/2018</t>
+  </si>
+  <si>
+    <t>I love it here the ppl are great it&amp;#39;s basically free i love coming here it&amp;#39;s so beautiful&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jason F.</t>
+  </si>
+  <si>
+    <t>7/9/2018</t>
+  </si>
+  <si>
+    <t>World renowned art collections. To me one of the better art museum experience in the world.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jen S.</t>
+  </si>
+  <si>
+    <t>7/8/2018</t>
+  </si>
+  <si>
+    <t>Awesome museum- could have spent days looking at everything! Loved their collection of contemporary art- Pollack, Warhol, Lichtenstein, and so many more!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>D J.</t>
+  </si>
+  <si>
+    <t>7/3/2018</t>
+  </si>
+  <si>
+    <t>The place is massive and too much to see in one day, or walk around in. You can have entire exhibits and collections to yourself if you go off peak times. &lt;br&gt;&lt;br&gt;Staff is friendly and happy to redirect you or share their prolific knowledge. &lt;br&gt;&lt;br&gt;Don&amp;#39;t miss the miniature rooms in the basement. There&amp;#39;s also this new wing full of medieval weapons and armor, and they have horse models dressed in full regalia too. Lots of variety, and they&amp;#39;ve got some big stained glass works up too.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Shelley D.</t>
+  </si>
+  <si>
+    <t>7/2/2018</t>
+  </si>
+  <si>
+    <t>This place is amazing. I went with a lifelong Illinois resident on his first trip. We did all the pieces from Ferris Bueller, then wandered all over the place. Love the impressionist room and the special exhibit on Danish serveware. If you&amp;#39;re a student, remember to bring your ID to get a discount. I was very impressed with their small cafeteria, I had the chicago style dog with french fries, and  the dish was very good and very reasonably priced. A great place to reflect on your own, to talk about art with a friend, or a fun place as a possible date.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Saucy G.</t>
+  </si>
+  <si>
+    <t>6/27/2018</t>
+  </si>
+  <si>
+    <t>Lovely museum, truly. The impressionist gallery was beautiful. The contemporary galleries were amazing. I feel like I only saw half of what I wanted but hey its ok. Lovely layout. Could use some dusting tho! what is going on with the cleaning crew ppl? All dust bunnies under those benches. Beautiful flow, lovely light and works on display were great. The kids enjoyed it as did everybody else. Awesome that kids 13 and under are free&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Matthew P.</t>
+  </si>
+  <si>
+    <t>6/25/2018</t>
+  </si>
+  <si>
+    <t>Having visited Chicago on numerous occasions for conferences, I finally decided to visit the AIoC, and wow, I cannot believe that I waited so long to take the time out from the conference life to visit this amazing world class collection of art. On my first visit, I took care of the tickets online, which I highly recommend as it saves you significant time as you can bypass the ticket line at the museum. Also, the free pamphlet provided by AIoC is super useful, it provides a list of must see artwork, which I used as a treasure hunt of sorts that took me throughout the various sections. If you get lost (which is easy to do in this complex of adjacent buildings), ask for help (I did so on several occasions and each person was friendly in giving me directions. Spent 3-4 hours here, and would love to go back. Must see.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>A P.</t>
+  </si>
+  <si>
+    <t>6/23/2018</t>
+  </si>
+  <si>
+    <t>What a gem Chicago can call it&amp;#39;s own. Mesmerizing. Fascinating. &lt;br&gt;Always something new to view. Make a day of it though, there are too many treasures in there to be enjoyed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Frances L.</t>
+  </si>
+  <si>
+    <t>The Art Institute of Chicago is a world class facility. I loved it a lot more than many art museums I&amp;#39;ve been to, because it has so many classical paintings and some of my favorite impressionist artists. The museum spans 3 floors and prepare to spend 2-3 hours here.&lt;br&gt;&lt;br&gt;We arrived at the opening hour around 10:30 on a Friday and there was already a line. However, we got in fairly quickly and were able to check our umbrellas and coats ($1 per item)&lt;br&gt;&lt;br&gt;The ground floor house an amazing miniature collection which are tiny scenes of Japanese, Chinese, English and French rooms built to scale with accurate time period furniture. Each one was constructed artfully and you felt like you were peering into a royal&amp;#39;s living room. Most impressive was there were multiple rooms that gave the illusion of outdoor scenery or additional rooms. One of my favorite parts of the museum.&lt;br&gt;&lt;br&gt;The main floor held Japanese and Korean art. Lots of pottery and Buddhas. A nice display, but nothing I hadn&amp;#39;t seen before.&lt;br&gt;&lt;br&gt;My absolute favorite floor was the upper floor. This is where they have a whole wing of Impressionism art include Renoir and Degas. My parents had some prints of these hanging in their living room as I was growing up and it brought back so many nostalgic memories. There were also many Italian Renaissance paintings and a whole room decorated to weapons and armor.&lt;br&gt;&lt;br&gt;The Art Institute is another must visit if you are in Chicago. It&amp;#39;s amazing representation of fine art and a world class museum.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Tess G.</t>
+  </si>
+  <si>
+    <t>6/18/2018</t>
+  </si>
+  <si>
+    <t>So much to see here! &lt;br&gt;&lt;br&gt;The Chicago photography exhibit was really cool.&lt;br&gt;&lt;br&gt;We went with our city pass.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jonathan R.</t>
+  </si>
+  <si>
+    <t>6/16/2018</t>
+  </si>
+  <si>
+    <t>A very big and expansive collection of art. We focused in on the impressionist. &lt;br&gt;&lt;br&gt;We also saw the armor as well. The building were old and some rooms were a little warm. &lt;br&gt;&lt;br&gt;The front desk area to buy tickets went smooth. The gift shops we large and very air conditioned. &lt;br&gt;&lt;br&gt;Check out the bean and surrounding areas as well. &lt;br&gt;&lt;br&gt;Very hot in June to visit. We&amp;#39;d come back for sure but in the winter.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Ee Vonn Y.</t>
+  </si>
+  <si>
+    <t>6/11/2018</t>
+  </si>
+  <si>
+    <t>My preference will always be historical artifacts, statues, and arts from different cultures, civilizations, and time periods. We spent 4 hours in here with so much to see, and not enough time to stroll through every exhibit.&lt;br&gt;&lt;br&gt;Favorites&lt;br&gt;- Anything with Asian, Indian, and Egyptian art and history&lt;br&gt;- Ivan Albright&lt;br&gt;- Christian art&lt;br&gt;- America Windows by Marc Chagall&lt;br&gt;&lt;br&gt;Security - Friendly, helpful, and eager to assist you in finding your way and informing you about today&amp;#39;s highlights.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Wisit C.</t>
+  </si>
+  <si>
+    <t>6/9/2018</t>
+  </si>
+  <si>
+    <t>Have a wonderful time enjoying arts! This is a wonderful museum! Must visit in Chicago if you are into Arts! I visited with my sister. We both love it!!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Dana B.</t>
+  </si>
+  <si>
+    <t>6/6/2018</t>
+  </si>
+  <si>
+    <t>This place is MASSIVE!! From the outside, I had no idea how big it was!! You could probably spend a week on here and still miss some of the art. Note: they loan art out to other museums, and they change the art up. We had a couple pieces we wanted to see but one was in NYC and the other is temporarily off exhibit so other pieces can be displayed. Whatever your art pleasure is... sculpture, paintings, fine china.. it&amp;#39;s all there!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Mar L.</t>
+  </si>
+  <si>
+    <t>6/5/2018</t>
+  </si>
+  <si>
+    <t>I am new to art and just started to really enjoy going to museums. My trip here with my cousin was part of the Big Bus Chicago tour.&lt;br&gt;The place was big, and my 2 hours here was not enough. They have different kinds of exhibits. I enjoyed the Picasso Guitar Man I think is what it&amp;#39;s called, as well as the art on Elizabeth Taylor. &lt;br&gt;Very well worth going to, spend hours here!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Maria M.</t>
+  </si>
+  <si>
+    <t>So much great art here. I would have to say that the entry cost is a bit high, though. Thus I am leaving a four star review. I also wish this venue was open later on the weekends, 5pm close time is early on a Saturday! The venue is very clean and well staffed. I will definitely return but the cost hurts my pocket book. I think more business would turn this way given the right price.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Patrick B.</t>
+  </si>
+  <si>
+    <t>5/31/2018</t>
+  </si>
+  <si>
+    <t>After living in the Chicago area all my life, it took me moving out of state and coming back for a vacation to finally get me to visit the Art Institute. For my first time being here, I was certainly blown away. First off, by the shear size of the gallery, second, by the incredible work. It was awesome to see such famous pieces that I&amp;#39;ve only ever seen in books or on the internet. The gallery was enjoyable to walk around, clean, easy-ish to navigate, the audio tour was enlightening, the gallery cafe was decent and moderately priced, and the staff were for the most part welcoming to interact with.&lt;br&gt;&lt;br&gt;We did end up checking in our bags, which was quick, priced well, and pretty pain free. It was nice that we didn&amp;#39;t have to worry about finding a place to keep our stuff as we were between lodging locations.&lt;br&gt;&lt;br&gt;Overall this museum exceeded my expectations. It was nice to finally visit somewhere that I&amp;#39;ve only just passed by dozens of times. Great tourist spot for young and older adults, but certainly leave the kids at home for this one.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sameen A.</t>
+  </si>
+  <si>
+    <t>5/28/2018</t>
+  </si>
+  <si>
+    <t>Wow! Ready to spend a day at the museum and explore the world? Want to travel to Greece, Japan and Paris in one day? This is the place. Beautifully curated exhibits that combine both art and history. &lt;br&gt;&lt;br&gt;Make sure to allot a sufficient amount of time to tour this place because it can take a while to fully see all the exhibits. It took me about three hours. &lt;br&gt;&lt;br&gt;Remember to bring your student ID for a discount and note that big items such as backpacks will need to be checked in.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Stephanie D.</t>
+  </si>
+  <si>
+    <t>$35 admission. Make sure you get tickets in advance online to avoid a wait. I am a lover of art and was personally impressed with the works of artists like Picasso, Joan Miro, Salvador Dali, Matisse, Georgia O&amp;#39;Keefe, Andy Warhol, Rene Magritte and more. We also enjoyed the photography exhibit when you enter on the left. It displayed various photographs of people from Bobo.  There was also a film exhibition which was interesting. There were areas for contemporary and modern art as well as Asian, Greek, and other cultures. Definitely give yourself time to walk around and explore as there is so much to see.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Miranda H.</t>
+  </si>
+  <si>
+    <t>5/22/2018</t>
+  </si>
+  <si>
+    <t>I enjoy museums, but they&amp;#39;re usually not my first choice when I am on vacation. However, I paid the expensive ticket and all in all...I&amp;#39;d say it was worth it. There are hundreds of works of art to see! I didn&amp;#39;t pay for an audio tour and I&amp;#39;m not one to read all the descriptions of the art, but I easily spent two hours looking at everything.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Debbie D.</t>
+  </si>
+  <si>
+    <t>I&amp;#39;m so glad we chose (at the last minute) to visit The Art Institute of Chicago. What a treasure!!! The museum is filled with excellent artwork on display in a beautiful and accessible setting. Unlike many museums, The Art Institute of Chicago is small enough to visit in a day (or less). Plus there are classic paintings around every corner. I can&amp;#39;t believe we saw all of these works in just a few short hours!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Chelsea D.</t>
+  </si>
+  <si>
+    <t>5/20/2018</t>
+  </si>
+  <si>
+    <t>Beautiful museum, good flow through the galleries, tons of wonderful pieces and great exhibits. I really loved the Ivan Albright work currently on display. &lt;br&gt;&lt;br&gt;I&amp;#39;d recommend going during the week instead of the weekend as it gets packed and can be frustrating to look at pieces without people sticking their phones in front of your face to get pictures, which everyone moves through quickly.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Dennis H.</t>
+  </si>
+  <si>
+    <t>Best in the midwest and I can see why it is continually rated among the best in North America. Show up early because it is always busy.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Kate S.</t>
+  </si>
+  <si>
+    <t>5/19/2018</t>
+  </si>
+  <si>
+    <t>Lifehack for anyone else who has the flu and hours to kill before their flight and doesn&amp;#39;t want to stumble around with their luggage: check your bags in at the museum and get some culture!&lt;br&gt;&lt;br&gt;Silly old me thought the Art Institute had Seurat and that&amp;#39;s it. Maybe a few other things. After a few years in a city with not much, your expectations drop real low. What I was not expecting was to spend five in one of the best art museums I&amp;#39;ve ever visited in the country. The layout leads you through each time in history that even turned me onto some painters I&amp;#39;d written off in school due to proselytizing because once you see how everything flows, it completely changes your view. I was also shook to discover Elizabeth Sparhawk Jones&amp;#39;s work and want a stern word with all my professors who spent semesters on Sargent instead of including her.&lt;br&gt;&lt;br&gt;The collection from classical to modern is exquisite and I was looking at work I&amp;#39;d normally ignore because there was so much to take in. The building is beautifully designed and has spectacular views of the city. I wish I&amp;#39;d spent more time there but I&amp;#39;m eager to come back. Hopefully the museum will have a few more people in the cafe since they seemed short staffed. They&amp;#39;ve got that good Illy coffee though so it&amp;#39;s worth the wait.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Erica R.</t>
+  </si>
+  <si>
+    <t>5/18/2018</t>
+  </si>
+  <si>
+    <t>Can I go back? I want to go back. &lt;br&gt;&lt;br&gt;I spent hours in this museum and I still don&amp;#39;t think I saw all the nooks and crannies that I needed to see. &lt;br&gt;&lt;br&gt;Conveniently located at the end of Millenium Park, I wandered into the Art Institute of Chicago and used my Chicago CityPass for expedited entry. Love it. Though there were various school / class groups in the museum on the morning I visited (Thursday, May 3rd... I think?), the museum is large enough that it wasn&amp;#39;t a huge disturbance (unless they were yelling or running around one of the halls - but that was minimal). &lt;br&gt;&lt;br&gt;The museum is well organized and the collections of art and sculpture work are just beautiful. I can understand why the museum is so highly rated. Even the outside of the building feels like a masterpiece, with the North and South Lions seemingly guarding the building. &lt;br&gt;&lt;br&gt;There are, of course, the pieces from Picasso, Matisse, Dix, Van Gogh, Renoir, and Monet... but it&amp;#39;s so easy to become absorbed in the works that are also somewhat less recognizable. I would be lying though too if I didn&amp;#39;t admit to making a point to find &amp;#34;A Sunday Afternoon on the Island of La Grande Jatte&amp;#34; by Seurat to stand and stare for a bit, Cameron Frye-style, at the beauty of such pointillist technique.&lt;br&gt;&lt;br&gt;TL;DR  What can I say that hasn&amp;#39;t already been said? An incredible collection of art that helps rank the Art Institute of Chicago up there as a &amp;#34;must see&amp;#34;... just make sure you give yourself plenty of time to really wallow in the experience. This visit should not be rushed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sylvain P.</t>
+  </si>
+  <si>
+    <t>5/16/2018</t>
+  </si>
+  <si>
+    <t>This is a great museum were you can see arts from Van gogh and Picasso im fact there&amp;#39;s something for everyone. The museum is big and it takes at leadt 2 hrs to see it. &lt;br&gt;&lt;br&gt;This is as good as museum of fine arts of Montreal but not better than New York museum.&lt;br&gt;&lt;br&gt;C&amp;#39;est un excellent musée ou vous pouvez voir des oeuvres de Van Gogh et Picasso. Je pense qu&amp;#39;il ya quelque chose pour tout le monde.&lt;br&gt;Le musée est assez grand et il faut au moins 2 hrs pour en faire le tour.&lt;br&gt;&lt;br&gt;C&amp;#39;est un musée qui n&amp;#39;a rien à envier au musée des beaux arts de Montréal mais moins bon wue celui de New York.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Streets A.</t>
+  </si>
+  <si>
+    <t>An absolute must if you have never visited before, the Art Institute is a great time to soak in a colossal gem in Chicago&amp;#39;s to do itinerary.  You don&amp;#39;t have to be an art fiend and there really isn&amp;#39;t any pompous energy in the air. You&amp;#39;ll get to look at classics and other interesting pieces of art. This place functions as an amazing time trap. You will go in at a certain time and wind up leaving hours later without it seeming like a lot of time has passed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Adil S.</t>
+  </si>
+  <si>
+    <t>5/14/2018</t>
+  </si>
+  <si>
+    <t>This place was just utterly boring I really didn&amp;#39;t have fun here, everything is all over the place it&amp;#39;s really poorly organized. You really have to try to get interested in the art really want to be there. Pictures are okay nothing stellar I heard the science museum is a lot better I feel like I should have gone there my friends recommended it but they close earlier. I guess the only good thing is this place close at 8 on Thursdays so I ended up going here definitely not worth the ticket though. I probably spent about 1 hour here until me and the family took off out of boredom. Some of the Galleries and stuff we&amp;#39;re just not so exciting. They did have a good rum to create stencils on paper rubbings I believe they&amp;#39;re called, that was the most interactive fun they really have there, I think my one-year-old stop crying literally the moment I got out of that place I think she was more excited to see the buildings and the scenery outside in Chicago&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sarah S.</t>
+  </si>
+  <si>
+    <t>Chicago has some of the greatest museums in the world, and the Art Institute is no exception. When I lived in the city, I was a member here and used to visit all the time. Still, I&amp;#39;m not sure if I ever really managed to see everything as it would likely take weeks to really absorb everything this museum has to offer.&lt;br&gt;&lt;br&gt;The museum has an enormous range of periods and styles in its massive collection. If you only have one day, it can be overwhelming to try to fit in everything you want to see, so plan accordingly. I definitely recommend checking out the floor plan online before you visit so you can make the most of your day. Time will fly by during your visit and the museum will be closing before you know it!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Liz Z.</t>
+  </si>
+  <si>
+    <t>5/11/2018</t>
+  </si>
+  <si>
+    <t>This place is massive and can be a bit confusing w/o a map or guide. I found myself in dead end rooms bc I wasn&amp;#39;t paying attention. If you&amp;#39;ve got hours to kill or just wanna wander a bit, this is a great museum to explore.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Paulet D.</t>
+  </si>
+  <si>
+    <t>5/10/2018</t>
+  </si>
+  <si>
+    <t>This is my absolute most favorite art museum! I thought I fell in love with the MoMa in NY but that&amp;#39;s until I came to Chicago I realized this is my favorite museum! &lt;br&gt;&lt;br&gt;We were given a map of the museum along with a voice recorders that would give you descriptions of the paintings. We loved all of the exhibitions!  We literally walked around for hours just looking at them, reading the descriptions, and taking pictures. We even had a coffee break in between. &lt;br&gt;&lt;br&gt;The museum is big enough where you don&amp;#39;t feel crowded walking around which is a plus. The restrooms are huge and super clean. All of the employees were nice throughout our whole visit. Of course the Andy Warhol, Picasso and Dahli were some of my favorites. &lt;br&gt;&lt;br&gt;Definitely buy the City Pass next time you&amp;#39;re in Chicago. This was one of the 5 things included in the packet for about $100.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Bea V.</t>
+  </si>
+  <si>
+    <t>5/9/2018</t>
+  </si>
+  <si>
+    <t>Amazing beautiful  art pieces for display ! I loved seeing Van Gogh&amp;#39;s work and the numerous other beautiful paintings. This  museum  is totally worth visiting  for an afternoon then grabbing lunch amd taking a beautiful stroll in downtown Chicago&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jessica N.</t>
+  </si>
+  <si>
+    <t>Institute of Art Chicago is any art lovers dream, holding works from Warhol, Chagall, Picasso, Matisse, Dahli, Kandinsky, O&amp;#39;Keefe, Van Gogh, and Seurat. It is located in Grant Park and is one of the oldest and largest art museums in the U.S. My friend and I had visited during a weekend trip in Chicago. We purchased city pass, 5 attractions for $106, about $21 a piece, a great deal. You can purchase City Pass online or at any of the participating attractions where they give you a booklet. Don&amp;#39;t rip out the tickets in the booklet or else it will not be accepted. We were on a time crunch since we were meeting with a group of other people and were fitting in a large amount of activities in a weekend so we only had an hour to spare. With admission, you are given a small listening device that plays auditory commentary for specific paintings/exhibits indicated by a symbol and corresponding number to be inputed in the device to listen to the commentary. You are also given a map of the museum that indicates the location of major exhibits and pieces. Since we were in a time crunch, we wanted to hit all of the major pieces but the setup of the museum was a bit tricky. The famous pointillism piece Sunday Afternoon on the island of La Grande Jatte by Georges Seurat was a challenge to find. We kept receiving conflicting contradictory directions in locating the painting from various museum staff, since you have to loop around various stairs to find it in a different building but eventually we found it, and it was breathtakingly beautiful. One member of the museum staff recommended starting with modern art and finishing with Impressionism but honestly there wasn&amp;#39;t a lot of works upstairs in modern art besides  The Old Guitarist by Picasso and a few Matisse and Dahli paintings. Next time I would begin with the Impressionism wing which is immense and you could honestly get lost in for hours. The Monet section was definitely my favorite with Water Lilies, Haystacks, and several other beautiful pieces. Van Gogh&amp;#39;s self portrait and The Artist&amp;#39;s Bedroom and several Georgia O&amp;#39;Keefe paintings, and Edward Hopper&amp;#39;s Nighthawkes were also in this vicinity of the museum so I would definitely recommend beginning with exploring the Impressionism wing first and finishing with the Modern Art wing so that you have more time to explore. Great museum, with amazing art. I would love to return when I have more time to linger, just wish that the setup/layout was a little more straightforward. Would also love to return to see American Gothic which is currently on tour in New York.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Annabelle W.</t>
+  </si>
+  <si>
+    <t>5/5/2018</t>
+  </si>
+  <si>
+    <t>A must-do in Chicago! I literally had one day in the city and chose to spend it at The Art Institute and I am very happy with that decision. If you go to the Modern Wing, go directly to the third floor for the permanent exhibition.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Seth R.</t>
+  </si>
+  <si>
+    <t>5/4/2018</t>
+  </si>
+  <si>
+    <t>There is so much to see here, you almost need two days to see it all! They have really built up some excellent exhibit space, particularly in the medieval and renaissance halls.  The cafe is outrageously expensive, a wrap costing $12.  We came with our grandmother who was getting around with a cane.  We quickly realized that certain parts of the building were not designed well for accessibility.  For example, some bathrooms off the modern hall entrance required to move two sets of heavier doors.  Grandma actually hurt herself and came out into the hall bleeding after one of the doors was almost impassible for her.  &lt;br&gt;&lt;br&gt;Taking off a star for accessibility issues, cafe priciness and for all the noise coming from exhibit construction that robbed of the art gallery experience.  I&amp;#39;d really want to rate 3.5 stars if I could.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Greg T.</t>
+  </si>
+  <si>
+    <t>5/2/2018</t>
+  </si>
+  <si>
+    <t>Very good museum with an interesting array of exhibits covering nearly all periods and world geographies. I was particularly impressed with the Impressionist exhibits as I was not expecting to see so many Monet&amp;#39;s, Manet&amp;#39;s and Renoir&amp;#39;s which rivaled the Met and the Louvre.&lt;br&gt;&lt;br&gt;There was also a good amount of American arts in various medias with the paintings and sculptures being the most impressive. Plenty of Remington&amp;#39;s and Hudson River School works to keep you happy.&lt;br&gt;&lt;br&gt;The Ancient World was also well-represented with Roman, Greek, Etruscan and Egyptian art and artifacts to view. &lt;br&gt;&lt;br&gt;Museum is large enough to offer something for everyone and small enough that you can see most of it in one day. Decent on site café as well.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Mike H.</t>
+  </si>
+  <si>
+    <t>4/28/2018</t>
+  </si>
+  <si>
+    <t>I have a bias. The Philadelphia Museum of Art is not only my favorite art museum, it&amp;#39;s also my favorite place on the entire planet. That said, I knew going to the Art Institute of Chicago that I was going to be judging harshly since it&amp;#39;s arguably one of Philly&amp;#39;s primary national rivals for best art museum. And I will say, Chicago has got it going on.&lt;br&gt;&lt;br&gt;I loved LOVED so many of the permanent works there. The modern American art section was mind-blowing. I will have to concede my bias, it was the best I have ever seen. And that&amp;#39;s even without being able to see American Gothic (it is currently on tour). I loved seeing the Jackson Pollocks, the Georgia O&amp;#39;Keefes and the Picassos. &lt;br&gt;&lt;br&gt;We also seized the opportunity to recreate a scene from Ferris Bueller (yes, I know it&amp;#39;s a place of culture, but have a little fun too!) and I&amp;#39;m sure the guards were rolling their eyes because they probably see people doing it daily. &lt;br&gt;&lt;br&gt;All in all, I adored this museum and I can&amp;#39;t wait to have a reason to go again (perhaps when American Gothic is back home).&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Siobhan D.</t>
+  </si>
+  <si>
+    <t>This is an incredible place to spend the day if you are visiting Chicago but beware the cost is quite steep if you don&amp;#39;t have a membership.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Maling H.</t>
+  </si>
+  <si>
+    <t>4/26/2018</t>
+  </si>
+  <si>
+    <t>Great art museum. It&amp;#39;s pretty big inside. Took us about 2-3 hours to get through everything. We were pretty tired after walking all over the building. My favorite room was Claude Monte paintings. Beautiful. Gave me a sense of peace and tranquillity.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Daniel W.</t>
+  </si>
+  <si>
+    <t>4/24/2018</t>
+  </si>
+  <si>
+    <t>One of the premier museums in the world. A must-see for any visitor to Chicago with remotely any interest in art or artifacts. World-renowned medieval, European, and impressionist collections, together with numerous artifacts, and some oddball collections for good measure. Don&amp;#39;t miss out on the miniature rooms on the bottom floor. &lt;br&gt;&lt;br&gt;Travelers: Be aware of the bag check: $1 per item to check your luggage here, and not have to go back to your hotel.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Liz P.</t>
+  </si>
+  <si>
+    <t>4/21/2018</t>
+  </si>
+  <si>
+    <t>They have lots of great pieces here, but it&amp;#39;s very confusing to navigate. Most of the buildings don&amp;#39;t connect to each other, so we had to ask for help at least three or four times to find a specific piece we wanted to find.&lt;br&gt;&lt;br&gt;To be honest, I&amp;#39;m not a big museum person, but we bought a Citypass and my friend wanted to check out the art institute. I have been before but probably not since 2009 or 2010. With the city pass you also get an audio guide gadget which was fun, you walk up to a piece that has a number on it and can type in that number on the gadget and listen to some commentary about it. I liked this much more than just walking up to the piece and reading about it. We only had about an hour or two between engagements, and we probably could&amp;#39;ve spent more time here. If you are not an Illinois resident, it will cost you about $25 to get in here ... The best time to go if you are a resident is on Thursdays because I believe it&amp;#39;s free for residents that day. &lt;br&gt;&lt;br&gt;Overall I liked this place but they could&amp;#39;ve been more clear with directions.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Diane W.</t>
+  </si>
+  <si>
+    <t>4/20/2018</t>
+  </si>
+  <si>
+    <t>This museum is AMAZING!!! It&amp;#39;s huge and  the collection is breathtaking. We spent all day visiting but I still feel like I could have a completely new experience visiting again. &lt;br&gt;&lt;br&gt;First, it&amp;#39;s nice to walk around Millennial Park and see the giant Bean sculpture. A highlight if you&amp;#39;re in Chicago. It&amp;#39;s so compelling that it makes people giggle. I loved it.&lt;br&gt;&lt;br&gt;The collection inside is truly world class. Be prepared for the surprise of famous pieces around every corner. The paintings, sculptures and object de art is eclectic and brilliant. I like the way the areas are grouped. You&amp;#39;ll need a map. We decided on which collection we wanted to see first and went from there. &lt;br&gt;&lt;br&gt;As the afternoon got late, we stopped in a cheerful cafe for coffee and a sweet. They have good seating throughout so you can rest or focus on something amazing. I was very fascinated with the sculpture rooms and the paintings are beyond words. Leda and Zeus as a swan....oh, I wanted to feel the swan but I don&amp;#39;t want to ever get in trouble. &lt;br&gt;&lt;br&gt;Truly stunning and highly recommend stop in this gorgeous city. &lt;br&gt;&lt;br&gt;I love Chicago!!!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Laurie S.</t>
+  </si>
+  <si>
+    <t>Lichtenstein was outstanding.  Doesn&amp;#39;t get any better.  Went with cousin David and Karen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Helen S.</t>
+  </si>
+  <si>
+    <t>4/15/2018</t>
+  </si>
+  <si>
+    <t>A perfect experience for a rather chilly day while visiting Chicago.  It was packed w people and there were some areas where it was nearly impossible to appreciate the art because of it but we kept moving and enjoyed as much as we could.  They close at 5 pm on Saturday.  It was $25 for the day and it was with every dime.  Get a map. Get acquainted with what you want to see before you even begin. Time will go fast and you will have some ground to cover as far as space inside the museum. A ton of walk-in so wear comfortable shoes.  I can&amp;#39;t even think of a favorite because everything we saw that day was beautiful and amazing and full of stories and history.  Everyone should go to this museum at least once for the experience.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Alicia S.</t>
+  </si>
+  <si>
+    <t>4/14/2018</t>
+  </si>
+  <si>
+    <t>The Art Institute of Chicago is hands-down one of the best museums in Chicago. Beautiful works of art and gorgeous architecture. I have a membership and it&amp;#39;s more than worth it--my monthly visits combined with free coat check and access to the Member&amp;#39;s Lounge more than compensate for the $100 price tag. Plus I can bring 2 guests each visit! An awesome attraction for out-of-town guests!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Shaily J.</t>
+  </si>
+  <si>
+    <t>I&amp;#39;ve been in Chicago for almost two years now and felt it was time to visit the art institute given it is pretty close to my place. &lt;br&gt;The art museum is huge and has tons of rooms to explore on every floor. The institute realized that and has a curated list of popular painting/sculptures for those who are crunched for time. We chose to explore the curated list first and then explore any other spots if there was time. &lt;br&gt;It was super hard to stick to this plan since there were beautiful pantings, armors and sculptures all around us. We couldn&amp;#39;t help but wait and soak in all of it. &lt;br&gt;It was an amazing trip and I definitely need a couple more visits to explore everything in the institute. &lt;br&gt;Tip: free entry with Student IDs so make the most out of it if you have one!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Amy B.</t>
+  </si>
+  <si>
+    <t>4/11/2018</t>
+  </si>
+  <si>
+    <t>The art museum here is really a must do on your list of things to see in Chicago. It&amp;#39;s easily accessible on Michigan Avenue and can be found by bus, train or uber.  I came here because I had purchased a city pass and really really wanted to go very badly.&lt;br&gt;&lt;br&gt;Walking in the museum is an experience, as there&amp;#39;s lions on either side and a beautiful staircase leading in.  I checked in at the ticket counter and checked my coat for $1.  Also, you can upgrade and get a thing that tells you all about the art you are looking at.  I got a free upgrade but passed since I wasn&amp;#39;t really interested.&lt;br&gt;&lt;br&gt;There are a ton of wonderful exhibits, and a lot to see. I loved the stained glass (I think it&amp;#39;s Chigals stained glass exhibit), the china exhibit and the American Art section.  They also have two gift shops available, where you can purchase a lot of good stuff. The gift shops can be pricey, but I found a few things here that I liked, all for under $10.&lt;br&gt;&lt;br&gt;One of the cooler displays was the miniature room displays on the lower level.  It was absolutely stunning and cool.  So many different rooms and they all were super cool to look at. Definitely a must see.  Also, they have a lot of other displays that you can check out while there, and the staff is reasonably helpful.&lt;br&gt;&lt;br&gt;Also, I strongly recommend ubering in or taking a bus, because parking is $28!  Yikes! You can eat in the museum, but I reccomend going to one of the restaurants on Michigan Avenue instead. It&amp;#39;s one thing to grab a cup of coffee, but save your $$ and eat elsewhere!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jade M.</t>
+  </si>
+  <si>
+    <t>4/8/2018</t>
+  </si>
+  <si>
+    <t>Wow! This place is huge and it has a lot of great artwork. They let students in for free and side note if you have a Bank of America card you can also get in for free. Expect to be there for at LEAST two hours. There is just so much to see, but the building itself is beautiful and the employees are rather friendly. (Just don&amp;#39;t get too close to the artwork)! Parking can get expensive especially on weekends, I paid $37 for the Millennial Garage, there is a Lakeside Garage right next to the Millennial and the prices are pretty identical, to avoid the extra expense you can buy a parking ticket online for half that price. The museum had a great cafe downstairs with chiefs and everything! It was a bit expensive I paid about $17 for a burger,fries and a slice of pie (because I&amp;#39;m a fat ass). But the food was surprisingly good. Very enjoyable. This place is a really great place to see some beautiful art. Great attraction of Chicago.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Martin W.</t>
+  </si>
+  <si>
+    <t>4/7/2018</t>
+  </si>
+  <si>
+    <t>Had an awesome time at the Art Institute of Chicago doing a museum hack with Colin. It was fast-paced, interesting, hilarious, and I learned a lot. The museum has a ton of art pieces to look at. Definitely enough to make your head spin. It is a huge, clean, and well-lit space. Overall, a ton of fun and few hours well spent.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Erika J.</t>
+  </si>
+  <si>
+    <t>If you are an art fanatic, this place will not disappoint! It is huge so make sure you give yourself at least 5 hours! We hope to come again with more time. Loved the great collection of impressionist art!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jeffrey D.</t>
+  </si>
+  <si>
+    <t>4/6/2018</t>
+  </si>
+  <si>
+    <t>One of the perks of living in this great city. Make sure you you take a peek at the Impressionist exhibit!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Brian H.</t>
+  </si>
+  <si>
+    <t>This was my first visit to the Art Institute and I was not disappointed. The museum is very large and sprawling. Get a map! Plan for at least a couple hours. I spent three. Make sure you see the heavy hitters of the collection (American Gothic, Nighthawks, Sunday Afternoon, etc) but don&amp;#39;t buzz past the rest getting there. The AI has tons of great European and American modern art. I spent a long time with the collection of Georgia O&amp;#39;keeffes, many I&amp;#39;d never seen before even in books.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Miles E.</t>
+  </si>
+  <si>
+    <t>4/4/2018</t>
+  </si>
+  <si>
+    <t>This review has nothing to do with the art. It is some of the finest in the world. However, it was uncomfortable in parts of the building. So much so that my wife and I started feeling sick. It was stuffy and stagnant and stale. Unfortunately, we weren&amp;#39;t able to fully appreciate our day there.&lt;br&gt;That being said, the art is beautiful, especially the Chagall windows.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Cindy S.</t>
+  </si>
+  <si>
+    <t>4/2/2018</t>
+  </si>
+  <si>
+    <t>Not impressed at all. The staff is rude and not very accommodating. Every time you asked about an exhibit we were told it&amp;#39;s on loan somewhere else. Don&amp;#39;t need to come me back.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Christie W.</t>
+  </si>
+  <si>
+    <t>3/29/2018</t>
+  </si>
+  <si>
+    <t>This is a really great museum with so many different exhibits. Loved the impressionists and contemporary art they have on display. This museum gets very packed though so it gets noisy and a little tight in the most popular exhibits. The paintings are really beautiful though.&lt;br&gt;&lt;br&gt;Only thing is that the museum is very awkwardly designed. There is no intuitive flow. I found it annoying that not every building had access to each other. The museum cafe is also super annoying to reach if you are on the third floor. The map does not help because certain sections wont allow access to other floors. Better to ask the security guards directions.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Zoë P.</t>
+  </si>
+  <si>
+    <t>I mean it&amp;#39;s the art institute! It&amp;#39;s amazing. I&amp;#39;ve gone a few different times and I always feel like I find something new. One of the highlights of Chicago&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Kasha T.</t>
+  </si>
+  <si>
+    <t>3/28/2018</t>
+  </si>
+  <si>
+    <t>Expansive; you could easily spend weeks roaming the exhibits! I personally enjoyed the European art and paintings/sculptures from Medieval/Renaissance period. I would definitely recommend to Chicago natives and tourists alike. Staff was quite friendly and knowledgeable about the museum facilities. Directed to desired exhibits without an issue.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Mona T.</t>
+  </si>
+  <si>
+    <t>Besides the Met, this is my favorite art museum in the whole country. I could spend days in here. The collection is absolutely wonderful. Just being in here make you feel creative and appreciative of all the great artistic minds that have lived on this planet. I wish Los Angeles has a museum at this scale that I could spend a weekend in every month.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Aisha H.</t>
+  </si>
+  <si>
+    <t>fascinating spot and a great place to spend a leisurely afternoon wondering among the priceless pieces of art. there are tons of different art styles here and something new and different in each area. the individual rooms feel small and easily maneuverable, but I did feel a little overwhelmed in bigger areas with many options off each side. entry prices are not bad at all, with Thursday evenings free for those living in the area. the gift shop is equally awesome with lots of little cute knickknacks to remember your visit!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>John C.</t>
+  </si>
+  <si>
+    <t>3/26/2018</t>
+  </si>
+  <si>
+    <t>First of, a visit to the AIC is an ineffable experience. There really is no way to describe in words the feelings, sensations, stimulation, experience, and catharsis that this place engenders. When I lived in the city I would visit almost every Thursday and take in the culture. It&amp;#39;s amazing how each visit draws out a new emotion or way of deconstructing art. Of artwork the most I know about and relate to is painting and this place has some of the best. Where to start...Poussin, Miró, Chirico, Cézanne, Lautrec, Degas, Winslow, Goya, Bacon...the list goes on. Some of the better known works by the more esteemed painters of history can be found here. If entering from the west entrance and walking up the concrete stairs to the impressionist room you can only imagine what awaits you. A masterpiece by Caillebotte, a room full of Renoir, walking around the corner and there is a Manet, into the next room and there is Seurat calling you in to the world of pointillism, a Cassatt or two. If you can manage to pick your jaw off the floor and move into the next room you are greeted by a self-portrait from some Dutch painter who lived with Gauguin and sliced off the lobe of his ear. Some more of his impasto canvases lead into a room with some large Lautrec works that would be best to stare at on acid. Had enough yet? Then it&amp;#39;s off to the Monet room; ever seen one of his paintings with snow? Ever seen some haystacks at different times of the day? Ever seen one of his hardly distinguishable paintings from the cataract eyes? Luckily enough there was a Rodin exhibit going on so that was a nice treat in and amongst some other impression paintings. There were large and small bronze works, a few drawings, and a rather extensive history on the artist. Then it&amp;#39;s off to the Gauguin world of Tahiti and some 2D Cézanne still life works that make you question physics. How can he paint that table with a bowl of fruit on it where the table looks almost vertical and the bowl doesn&amp;#39;t roll off the table? Mind blown! From here it&amp;#39;s a tough decision to make...the modern and contemporary rooms with Pollock, de Kooning; up to the surrealists of Tanguay, Dali, Magritte, Chirico; to the cubists of Gris, Picasso, Braque; modernists of Chagall, Matisse, and Mondrian; or do we move onto a different medium? Ancient Roman marble, Greek pottery, Chagall windows, Steuben glass, Native American anthropology, Japanese block prints, an exhibit on ancient Chinese bronze, the possibilities are endless. Maybe if you&amp;#39;re lucky they will bring back The Supper at Emmaus by Caravaggio. Maybe you need a break and want to hit the book store, or grab a bite to eat at the cafe. Or maybe you want to check out some quilts, some Islamic doors from the 13th century, or maybe you want to see hundreds of silver cutlery and dinnerware settings. Maybe it&amp;#39;s oak furniture. Maybe it&amp;#39;s Remington bronze work. Maybe it&amp;#39;s time to think about the space you&amp;#39;re in and the wonders they have in the archives. Either way I&amp;#39;m going back to my favorites in this place. Then off to the redline where I patiently await the next Thursday, or the next exhibit, or the next time the Blackhawks make the Stanley cup and the concrete lions who protect this kingdom are festooned with oversized hockey helmets. Or maybe I will watch Ferris Bueller&amp;#39;s day off and realize how special this place truly is.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Zoe C.</t>
+  </si>
+  <si>
+    <t>3/23/2018</t>
+  </si>
+  <si>
+    <t>Loved spending the evening at the Art Institute! There is such a wide range of works, you can really find something that will interest everyone. I spent a lot of time with the Impressionist and at the Contemporary Art exhibit. Highly enjoyable and recommend for all ages!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Lori C.</t>
+  </si>
+  <si>
+    <t>3/21/2018</t>
+  </si>
+  <si>
+    <t>If you visit the Willis tower you can purchase a combined deal for Willis and the Art institute of Chicago. It&amp;#39;s worth it!  They are only a short uber ride away from each other and easily doable in one day. There are many exhibits for all kinds to see. Starting from older more traditional art to more of a modern expressive art. Either way you get caught up in the time and effort put into each piece and admire the creativeness each exhibit offers. &lt;br&gt;&lt;br&gt;I can see why this is a popular spot to visit in Chicago. Also it&amp;#39;s right next to the bean so go ahead and snap a pic of a reflection of yourself while in the area.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Tara G.</t>
+  </si>
+  <si>
+    <t>3/14/2018</t>
+  </si>
+  <si>
+    <t>If I could give a 100 stars I would! This place is so amazing I am almost speechless... one of the best museums in the country. I spent 5 1/2 hours here and I still felt like I could have stayed longer. They have everything from Asian art, African art, Rodin, Warhol, Degas, Picasso... and everyone in between! Great pieces and the staff is very knowledgeable. Highly recommend!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Soomin L.</t>
+  </si>
+  <si>
+    <t>3/13/2018</t>
+  </si>
+  <si>
+    <t>Huge museum with a wide selection of art. I didn&amp;#39;t realize time was passing by and ended up spending 4 hours there (I could have spent more time). The cafe there was quite small and walking around with a thick jacket made me really hot.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sherwin C.</t>
+  </si>
+  <si>
+    <t>3/10/2018</t>
+  </si>
+  <si>
+    <t>As Chicagoans, we are lucky to have this enormous museum of different styles of art available in a convenient spot with a very reasonable admission price (and free on Thursday evenings!). With rotating exhibits that cover everything from ancient Chinese artifacts to architecture to armor to quilts and more -- the art available to enjoy changes frequently. &lt;br&gt;&lt;br&gt;This is the 2nd largest art museum in the US with approximately a million sq feet of space. It is very photography friendly although there are a few minor restrictions on certain exhibits. With the size and variety of the museum, it&amp;#39;s great for bringing groups for educational and work related outings, but also great to enjoy by yourself. On a rainy day, there is really no better place to enrich your art experiences but this is also a great place to visit on a sunny day as well.&lt;br&gt;&lt;br&gt;Overall, one of the best attractions to visit in Chicago. This should be on everyone&amp;#39;s list of sites to visit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Liz T.</t>
+  </si>
+  <si>
+    <t>3/8/2018</t>
+  </si>
+  <si>
+    <t>How can you review this place? It is the highlight of Chicago, in my opinion. It is a huge place with incredible and priceless pieces of art while still having a small and comfortable feel.&lt;br&gt;&lt;br&gt;The app is a must with this place. Bring your phone and headphones and walk around and listen to info on the art in front of your eyes.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Carla A.</t>
+  </si>
+  <si>
+    <t>3/7/2018</t>
+  </si>
+  <si>
+    <t>IT DOESN&amp;#39;T GET ANY BETTER THAN THIS!&lt;br&gt;Having our cocktail reception in the Grand Staircase, a private viewing of the Impressionist Exhibit, to come looking above the the dinner reception in the Modern Wing... guests were not only pleasantly surprised but just floored at how beautiful it was. Although we missed the cocktail hour because we got to take pictures on the bridge (in front of the best view of the city as our back drop) everyone complimented the cocktail hour, and the food throughout the reception. It was consistent and exactly what we had at the tasting. FEW RECS:  a super elegant touch was having desserts passed around by servers.  As people are dancing the night away, desserts were at our fingertips instead of confined on a table in one area.&lt;br&gt;Also, having one huge bar! Right under the staircase. Marriage is about bringing families together and I was so happy that this layout of the dinner reception allowed everyone to congregate at one bar, right in front of the dance floor! &lt;br&gt;Katy Krantz was amazing and was super responsive to any questions and concerns I had! The security and service was impeccable! &lt;br&gt;I wish I could do it all over again!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Debbie A.</t>
+  </si>
+  <si>
+    <t>3/6/2018</t>
+  </si>
+  <si>
+    <t>We loved visiting the Chicago Art Institute &lt;br&gt;It was a great day at the museum very efficient to get in the ticketing online was easy. &lt;br&gt;we enjoyed the exhibits tremendously great place easy to get there. took a train ride to get there would recommend it highly&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Poppy G.</t>
+  </si>
+  <si>
+    <t>3/5/2018</t>
+  </si>
+  <si>
+    <t>The Art Institute of Chicago is in my mind meant to be a fine establishment given they show prestigious art from across the globe. I am very fond of the art they display and have never been disappointed in that regard, however I can&amp;#39;t say as much for the staff. I am a student at Loyola University Chicago and get free admission into the institute, so whenever I have some free time I like to travel to the museum even if that means I only have twenty minutes to quickly glance around, just for the heck of it. Every time I&amp;#39;ve come, I&amp;#39;ve had an awful interaction with the staff behind the ticket desk where they are incredibly snippy with me and just so clearly show their anxiousness to get home. While the institute itself is very nice, it would be drastically better if the staff were not so rude and would learn to not take out their day&amp;#39;s irritation on their customers.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Anh L.</t>
+  </si>
+  <si>
+    <t>3/1/2018</t>
+  </si>
+  <si>
+    <t>I was so excited to come here, but left disappointed. First of all, we had to check in all our items and with a cost as well. Most of the museums I&amp;#39;ve been to let us just turn our backpacks to the front of our bodies and if we did have to check anything in, it was free. I understand that they want to preserve all their art, but at least be friendly about it. Everyone was so rude.&lt;br&gt;&lt;br&gt;My favorite arts were in the renaissance room. I remember learning about all those pieces in my art history class; so to be able to see them in person was beautiful and breath-taking. I was able to see a lot of famous pieces and I also saw some strange art as well, but hey.. who am I to judge what art is. &lt;br&gt;&lt;br&gt;Overall, it was okay, but not as great as I thought it would be.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Bill O.</t>
+  </si>
+  <si>
+    <t>2/27/2018</t>
+  </si>
+  <si>
+    <t>Wow! I&amp;#39;m not much of an art guy but this was well worth it! So many cool things to see and I liked way more than I ever expected that I would. Seeing many of the famous painting in person is turkey nothing like the pictures in books. Though it would be a quick trip cause I would get bored and ended up spending 3 hours there. Only honestly left at that point to get food. Would go back!!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Brian P.</t>
+  </si>
+  <si>
+    <t>2/25/2018</t>
+  </si>
+  <si>
+    <t>Simply beautiful! Such a vast amount of art and very diverse as well. The exhibitions are very organized and the space is wonderful. I definitely recommend getting an audio tour added to your ticket to get the full experience. You get to listen to the curator speak about certain pieces of the art and there are wooden benches to sit on while you listen.&lt;br&gt;&lt;br&gt;Only little negative comment that I want to make is that in the section where Asian art was displayed, I believe the Korean category was a little lacking. I am Korean so it could definitely be a bias statement but the amount of art depicting Korean history was definitely a lot smaller than the rest.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Huong L.</t>
+  </si>
+  <si>
+    <t>2/24/2018</t>
+  </si>
+  <si>
+    <t>This museum is pretty big with a lot of different themes. You can spend a whole day here looking at everything or if you have certain preferences, you can spend a couple of hours as well. &lt;br&gt;&lt;br&gt;My favorite part was the room with mini versions of different rooms in Europe and America. The detail of each room is so impressive. &lt;br&gt;&lt;br&gt;The only critique I have is that the stairs are confusing. Only certain stairs will get you to certain places, otherwise, you have to go to the first floor to connect.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Anandita G.</t>
+  </si>
+  <si>
+    <t>2/23/2018</t>
+  </si>
+  <si>
+    <t>Love the MET so had to visit art institute and it was just as amazing. I was able to spend hours here with my siblings, there is so much to see. The staff is also great and helpful. I would recommend to everyone visiting Chicago.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sarah A.</t>
+  </si>
+  <si>
+    <t>2/20/2018</t>
+  </si>
+  <si>
+    <t>I can spend eternity here gazing upon the brilliant pieces of work mankind has lovingly and painstakingly created. This place is endless and requires a full day or a couple of days to properly take in. It&amp;#39;s by far, my favorite art institution I&amp;#39;ve been to. It, most definitely, tops the Getty Villa in Malibu, California. The refugee portion that recently opened up offers a sea of information about the hardships and suffering immigrants are forced to endure while fleeing turmoil in what was once a safe place called home. The short stories displayed starkly in the tent were absolutely profound. It reminded me of the perseverance and strength humans have, to endure absolutely any unspeakable tragedy/ tragedies while armed with little more than hope and faith, helping them begin a new life after the storm of suffering. Once all their fears become a reality, they become fearless and strong beyond belief. Their stories ignite a respect and admiration from those who have never been in their position and are now able to empathize with the refugee crisis. As I was taking in the work, I encountered a very rude employee. I didn&amp;#39;t think much of it until the employee disrespected an elderly couple. I spoke to the manager and she was apologetic and kind. She let me know that she would talk to that employee and make sure he was respectful and didn&amp;#39;t enforce rules that didn&amp;#39;t exist instead focusing on the ones that did. I appreciated their swiftness in handling the situation. I spent hours in this portion of the museum before I wandered into another world of art featuring Islamic artifacts and textiles. Each place I visited was mind blowing. Before long, as I admired the armor in the medieval section, my stomach rumbled with hunger. The only thing that could get in the way of immersing myself in the beauty of it all was hunger. Therefore, I vow to come back and continue discovering exceptional work for hours on end with a full stomach.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Emily L.</t>
+  </si>
+  <si>
+    <t>2/19/2018</t>
+  </si>
+  <si>
+    <t>Very fun to go here! There are so many exhibits, and usually special exhibits are also going on. The museum is kind of hard to find your way around, but everyone working there is super helpful and there are maps. My favorite place to go is downstairs by the Chagall windows&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Megan Z.</t>
+  </si>
+  <si>
+    <t>2/18/2018</t>
+  </si>
+  <si>
+    <t>My boyfriend and I really enjoyed this place. We tried to visit all the sections in the short amount of time we had, and the art still blew us away. Pick up a brochure/visitor&amp;#39;s guide so you can plan out what art you will enjoy. It&amp;#39;s a huge place so avoid getting yourself lost. I recommend visiting their gift/merch shop to buy any of your loved ones souvenirs too.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Edward S.</t>
+  </si>
+  <si>
+    <t>2/17/2018</t>
+  </si>
+  <si>
+    <t>What more can be said about the Art Institute?  It is a fantastic museum and I must-see place for everyone visiting Chicago.  To start, it is in a fantastic location and even the outside is stunning.&lt;br&gt;&lt;br&gt;The only downside is that it is often crowded--and then in the winter, the lines to check coats can be long.  It is best to visit during a weekday and in the morning if at all possible.&lt;br&gt;&lt;br&gt;There is so much art to see here that it is hard to recommend any one area.  One great feature of museum is that the visiting exhibits are often very worth observing--and they have saved a large area for them.&lt;br&gt;&lt;br&gt;The gift shop is also very good.  Overall, just a perfect museum.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>2/15/2018</t>
+  </si>
+  <si>
+    <t>Seriously one of my top 5 museums in the U.S. and certainly, in Chicago. The Art Institute has something for everyone- Impressionists, Modernists, a World Class collection of art and sculpture. My membership lets me explore AIC anytime I want, and it&amp;#39;s well worth it!&lt;br&gt;&lt;br&gt;Checkout the room of miniatures! Aww, miniatures! I&amp;#39;m also partial to the collection of modern furniture. Featured in Ferris Bueller&amp;#39;s Day off, take a day off and explore it for yourself. Tourists, this is not to be missed on your visit.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Scott M.</t>
+  </si>
+  <si>
+    <t>2/11/2018</t>
+  </si>
+  <si>
+    <t>Truly a 5 Star museum, probably one of the best museums in America. This place has it all, paintings, sculptures, videos, beer and coffee in the cafe, new art, old art, a hipster wearing a beanie that says &amp;#34;abomination&amp;#34; a lot, religious art, that one painting from Ferris Bueller, Cat Milfs - that&amp;#39;s that thing where a single older woman makes sure you tie your shoes to prevents falls, but you know she probably doesn&amp;#39;t have kids, but probably a lot of cats and liberal ideals.&lt;br&gt;&lt;br&gt;I love this joint, it is well worth the money. YOU WILL GET LOST HERE!&lt;br&gt;My ass got lost 20 times, but each time was worth it.&lt;br&gt;&lt;br&gt;I played a fun game where I&amp;#39;d sneak up behind people and say something about the paintings. One of the paintings featured people crying and I said, &amp;#34;Looks like Lions fans&amp;#34; and it got a nice chuckle. &lt;br&gt;&lt;br&gt;Detroit&amp;#39;s DIA has more cutting-edge art in the Modern Art area, but the ones here are freaking classic. Must sees.&lt;br&gt;&lt;br&gt;My favorite art here was the Ceramic Monkey Band. There&amp;#39;s like these ceramic monkeys and they are LIT AF!!! I loved every monkey that day that I did see, from Chimpan-a to Chimpan-Z. lol. &lt;br&gt;&lt;br&gt;Kinda bummed that there weren&amp;#39;t too many paintings of wolves, but if you love art and sexy eye contact, this place is the place to be :)&lt;br&gt;&lt;br&gt;TIP - Save a day for this place. It&amp;#39;s gonna take at least 4-5 hours to take it in man.&lt;br&gt;&lt;br&gt;TIP - In the Modern Art Area, lay a pack of gum or hat in the corner and see if people look at it for fun. ***Spoiler Alert*** Some Do - Also Snoke dies in the new Star Wars***&lt;br&gt;&lt;br&gt;This is a great museum. Perfect place for art fans accross thine globe&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Gina V.</t>
+  </si>
+  <si>
+    <t>2/6/2018</t>
+  </si>
+  <si>
+    <t>Wow I have not been at the Art Institute of Chicago for at list 20 years.  I had such an amazing time looking at such great exhibits specially all the nice gold bracelets and gold coins.  How can you not like all the beautiful statues and the nice paintings. &lt;br&gt;There is something beautiful to appeal all of us.  I was also admiring the quilts and the gorgeous furnitures.  I was contemplating the gorgeous cut&lt;br&gt;Mosaics and relics.  &lt;br&gt;Thank you for having a free admission for Illinois residents.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Courtney C.</t>
+  </si>
+  <si>
+    <t>2/3/2018</t>
+  </si>
+  <si>
+    <t>Yessss. Just yes. One of the best art establishments I&amp;#39;ve ever visited - so many gems in this place !!!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>John L.</t>
+  </si>
+  <si>
+    <t>Many great works reside in these smoothly flowing corridors. We stopped in at &amp;#34;The Museum Cafe&amp;#34; which is cafeteria style the food is decent and they have a small bar. The whole complex is as nice as you would expect. I would suggest not taking small kids because the ones I saw were miserable.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Crystal C.</t>
+  </si>
+  <si>
+    <t>2/2/2018</t>
+  </si>
+  <si>
+    <t>This is one of the best museums in the WORLD, if you didn&amp;#39;t know and appears in basically every top five list there is so if you are visiting this is worth checking out despite the high price tag on the entry! And if you are an Illinois resident and pay our sky-high taxes then you might as well visit during one of the times it&amp;#39;s free for residents because you basically already paid for this stuff anyway!&lt;br&gt;&lt;br&gt;Protip #1 Bring your walking shoes!&lt;br&gt;Protip #2 Bring your reading glasses, it is &amp;#34;touch to learn more&amp;#34; all up in here!&lt;br&gt;&lt;br&gt;I am not &amp;#34;art smart&amp;#34; by any stretch, but I did take 2 semesters of art history in college because the teacher was really good looking, I don&amp;#39;t remember much, but in-between awkward staring sessions I did manager to learn a bit about the visual arts in a functional/historical context. Consequently my favorite sections are the Armory (swords and guns baby!), European Decorative Arts (ceramics and glassware for oldtimey rich people!), and the Ancient and Byzantine (highly ornate combs and nose rings galore!). &lt;br&gt;Sections they could improve on include the Asian art and Art of the Americas, but lots of other museums specialize in that sort of stuff, maybe they aren&amp;#39;t worried about trying to match a whole museum in their comparably small galleries. The Modern Wing is also nice, they keep it very shiny and new looking and you can get a BIT closer to this art than they really old stuff and some of the exhibits are even touchable and edible!&lt;br&gt;If you are art smart, they also got you covered with the big names! They got Monet, they got Manet, they got Van Gough, they got Kandinsky, and they even got that huge famous George Seurat painting, Sunday Afternoon...something. Like I said, I don&amp;#39;t know art that well...&lt;br&gt;So Thursdays they are open late, and IL residents are free from 5-8pm, stop by on your way home and get your cultural knowledge on!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Linda N.</t>
+  </si>
+  <si>
+    <t>1/29/2018</t>
+  </si>
+  <si>
+    <t>This is in my list of Top 5 US museums. It is the second largest museum in the US, behind the Metropolitan Museum in NY, which is quite telling. I will say that there is a story behind the way the art is grouped together, where the rooms seem to flow into one another for each time period and artistic theme. &lt;br&gt;&lt;br&gt;My favorites were the Japanese wood block prints in the Lower Level and the Impressionist Claude Monet Room on the second level. I&amp;#39;d recommend starting at the Second Floor and making your way down for new visitors. So surreal to stumble upon art that you see everywhere (Sunday at the Park for example), and have a moment of realization that this is the original artwork. So beautiful, and so neatly organized. The staff are super helpful too. And watch out for free days for Illinois residents, like Free Resident Day and Chicago Museum Week.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Josephine C.</t>
+  </si>
+  <si>
+    <t>1/27/2018</t>
+  </si>
+  <si>
+    <t>We were worried about coming here during Museum Week, as we thought it would be packed since it&amp;#39;s free to Illinois residents. But since the Women&amp;#39;s March was starting just down the block and security wouldn&amp;#39;t let anyone in with posters, it was very empty that Saturday morning. The spaces are great, and if you love modern art then you&amp;#39;ll really like this place. I greatly enjoyed the furniture from different eras and regions, but they weren&amp;#39;t all gathered in one place so sometimes they&amp;#39;d just pop up while you&amp;#39;re randomly walking through the Impressionist section or the American Modern Art section.&lt;br&gt;&lt;br&gt;I wasn&amp;#39;t very impressed with the Chinese/Korean/Asian section, but perhaps I&amp;#39;ve been spoiled by the Asian Art Museum in San Francisco. You can&amp;#39;t really compare an entire museum on Asian art and artifacts with just a section in a regular art museum, so I guess AIC did the best with what they had. It was alright.&lt;br&gt;&lt;br&gt;The part the surprised me the most were the exhibits downstairs. There was an entire room dedicated to paperweights. I didn&amp;#39;t know that was a thing, but apparently even Truman Capote was a collector. There&amp;#39;s another room that&amp;#39;s titled Miniatures but it&amp;#39;s more like dioramas. They&amp;#39;re AMAZING. I was incredibly impressed by the dedication the artists put into every little detail. That was perhaps the highlight for me, because I don&amp;#39;t know any other museum in the world that has this. And if there are others, please PM me cause I&amp;#39;d love to check those out.&lt;br&gt;&lt;br&gt;One serious issue I had is that it&amp;#39;s not easy if you&amp;#39;re handicapped or physically weak to visit this museum. I had badly sprained my knee before my trip and needed to take frequent breaks at the galleries, but there weren&amp;#39;t enough benches available. When we wanted to check out another exhibit and it wasn&amp;#39;t connected to the main building, it required going down, walking through entire sections of another building, walking through other exhibits, before finally getting there. The elevators are around, but really they should have some ramps instead of all these stairs. And they need a lot more benches. The dioramas had none and if you sit on the steps, security comes and tells you to stand up or sit outside.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Michelle S.</t>
+  </si>
+  <si>
+    <t>1/25/2018</t>
+  </si>
+  <si>
+    <t>The Art Institute is a staple of Chicago, and an incredible museum! They have student discounts, which cuts the price in half, and coat checks for $1. You could easily spend hours wandering the halls of the museum, but they make it very easy to find major works. The layout as a whole is fairly intuitive to navigate, and there is so much to drink in.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Eve Z.</t>
+  </si>
+  <si>
+    <t>1/23/2018</t>
+  </si>
+  <si>
+    <t>Absolutely love the Art Institute, this place is HUGE. You could spend hours here. Not only is the building itself beautiful, but the art work is awesome. Highly recommended!!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Michael S.</t>
+  </si>
+  <si>
+    <t>1/22/2018</t>
+  </si>
+  <si>
+    <t>The Art Institute of Chicago easily resides in my list of Top 5 Art Museums in the U.S.&lt;br&gt;&lt;br&gt;With over one million square feet across multiple buildings (connected on the first floor), the Art Institute displays an impressive collection of art, history, and culture including:&lt;br&gt;&lt;br&gt; * Medieval or Modern&lt;br&gt; * European or Indian&lt;br&gt; * African or Roman&lt;br&gt; * Asian or American&lt;br&gt; * Impressionist or Neoclassical&lt;br&gt; * Christian or Islamic&lt;br&gt; * Photography or Film&lt;br&gt; * New media or Ancient&lt;br&gt; * Sculptures or Paintings&lt;br&gt;&lt;br&gt;Tips for visiting:&lt;br&gt; * Open 362 days a year 10:30 - 5:00&lt;br&gt; * Open late Thursdays until 8:00&lt;br&gt; * Closed Thanksgiving, Christmas, &amp;amp; New Year&amp;#39;s&lt;br&gt; * Adults $25; Seniors/Students $19&lt;br&gt; * Children 13 and under free&lt;br&gt; * Everyone free Thursdays after 5:00&lt;br&gt; * Discounts for Chicago &amp;amp; IL residents&lt;br&gt; * Go Chicago and CityPASS accepted&lt;br&gt; * Photography without flash is allowed&lt;br&gt; * No backpacks or large bags&lt;br&gt; * No food or drink in the galleries&lt;br&gt; * No on site parking except valet&lt;br&gt; * Nearby are several parking lots&lt;br&gt; * El Train, Metra, or bus are good options&lt;br&gt; * Museum dining are a couple small cafes&lt;br&gt; * The Artist&amp;#39;s Studio is hands-on for kids&lt;br&gt; * Download the free Tours app with 50 tours&lt;br&gt; * There also 80 PDF mini-tours available online&lt;br&gt; * Audio Guides are $7/person&lt;br&gt; * Were comfortable shoes&lt;br&gt; * Check your coat or bags ($1 each)&lt;br&gt;&lt;br&gt;Here are some of my favorite art pieces ... so far:&lt;br&gt; * The Drinkers (1890) by Vincent van Gogh&lt;br&gt; * Paris Street, Rainy Day (1877) by Gustave Caillebotte&lt;br&gt; * A Sunday on La Grande Jatte (1884) by Georges Seurat&lt;br&gt; * The Mexican Major (1889) by Frederic Remington&lt;br&gt;  * Stamford after Brunch (2000) by John Currin&lt;br&gt; * Ohhh ... Alright ... (1964) by Roy Lichtenstein&lt;br&gt; * Little Dancer Aged Fourteen (1879-1881) by Edgar Degas&lt;br&gt; * Ballet Dancers (1885-1886) by Henri de Toulouse-Lautrec&lt;br&gt; * Water Lily Pond (1917-1919) by Claude Monet&lt;br&gt; * Woman and Child at the Well (1882) by Camille Pissarro&lt;br&gt; * Mater Dolorosa (Sorrowing Virgin) (1480-1500) by the Workshop of Dieric Bouts&lt;br&gt; * Lotus Lilies (1888) by Charles Courtney Curran&lt;br&gt; * The Song of the Lark (1884) by Jules-Adolphe Breton&lt;br&gt; * Madame de Pastoret and Her Son (1791-1792) by Jacques-Louis David &lt;br&gt; * Old Man with a Gold Chain (1631) by Rembrandt Harmensz van Rijn &lt;br&gt;&lt;br&gt;Whatever your art passion or interest, the Art Institute of Chicago has something for everyone ... even you.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Kelly N.</t>
+  </si>
+  <si>
+    <t>1/16/2018</t>
+  </si>
+  <si>
+    <t>I was lucky enough to attend two live musical performances at Fullerton hall, one outside during the summer and the other was inside of Fullerton Hall. Joan Of Arc performed a live score to old film Joan Of Arc and then I saw Beauty Pill. Such incredible experiences inside and out of a BEAUTIFUL venue. My friend and I could not appreciate the glass ceiling enough. The seating inside is pretty cramped but there is a lot of it so that is a plus. &lt;br&gt;Sound was great.&lt;br&gt;Staff was very friendly.&lt;br&gt;&lt;br&gt;I hope they have more live events next summer!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Patrick F.</t>
+  </si>
+  <si>
+    <t>1/14/2018</t>
+  </si>
+  <si>
+    <t>It&amp;#39;s a beautiful museum with lots of significant works by world-renowned artists like Van Gogh and Monet. The museum is also very modern and looks newly renovated. Four stars only because I was disallowed to bring my backpack into the museum.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>G P.</t>
+  </si>
+  <si>
+    <t>1/7/2018</t>
+  </si>
+  <si>
+    <t>Do NOT get a membership with the intent to use their members&amp;#39; cafe. The rules are absolutely restrictive and nonsensical. For instance, a cookie bought from the nearby cafe is BANNED from their holy grounds. Thinking of going in, grabbing a free coffee, and consuming it elsewhere? ABSOLUTELY NOT PERMISSIBLE. Even if it&amp;#39;s in a cardboard cup. And you can buy coffee from the nearby cafe and drink it anywhere. (Btw, both the regular and decaf options were out). Not to mention, the atmosphere is absolutely oppressive and pretentious. Obviously art can only be enjoyed by the members of society who take themselves the most seriously. Not a good place for children if you hadn&amp;#39;t picked up on that by now.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Harlyn L.</t>
+  </si>
+  <si>
+    <t>1/6/2018</t>
+  </si>
+  <si>
+    <t>World class customer service and world class art. I always enjoy coming here to check out the exciting exhibits!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Brian T.</t>
+  </si>
+  <si>
+    <t>1/5/2018</t>
+  </si>
+  <si>
+    <t>A landmark collection and museum. GO!  That being said, do NOT eat in the restaurant there. I have given this place two chances and it is expensive, slow, and, one of the most badly laid out places I have ever been. You can&amp;#39;t tell which line is for which meal and the food is mediocre at best. They also seem to be very very understaffed.  Go for the art but skip the meal.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Joe P.</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Evoking a wondrous garden maze with surprises around every corner, the Art Institute of Chicago is quite simply one of the best museums you&amp;#39;ll ever visit -- anywhere in the world. Take the time to savor its treasures, and you&amp;#39;ll leave with memories for a lifetime. From classical Greek and Roman statuary to iconic American paintings, there&amp;#39;s something here for every taste - a virtual cornucopia of world art that both overwhelms and stimulates a hunger for more.&lt;br&gt;&lt;br&gt;I spent more than two glorious hours wandering the Institute during a recent business trip to Chicago, and could easily have stayed an hour more. There are far too many highlights to mention, but if time is pressing, head straight for the second floor Impressionist wing, where you&amp;#39;ll be greeted by works by Monet, Degas, and other masters. Seurat&amp;#39;s  massive &amp;#39;Sunday on Le Grande Jatte&amp;#39; is the centerpiece here, but every gallery is packed with treasures that would make an art student blush. From Van Gogh&amp;#39;s &amp;#39;Self Portrait&amp;#39; to Renoir&amp;#39;s &amp;#39;Sisters on a Terrace&amp;#39;, the Institute whisks you on an unparalleled sojourn through European painting and sculpture. Few other American museums can boast an Impressionist collection this good - it rivals both New York&amp;#39;s Met and the Smithsonian&amp;#39;s National Gallery for scope and scale.&lt;br&gt;&lt;br&gt;Your next priority should be the American Masterworks wing, where you&amp;#39;ll find Edward Hopper&amp;#39;s classic &amp;#39;Nighthawks&amp;#39; painting and the iconic &amp;#39;American Gothic&amp;#39;, along with a trove of masterworks from John Singer Sargent, James McNeill Whistler, Mary Cassatt and Georgia O&amp;#39;Keeffe. &lt;br&gt;&lt;br&gt;The museum also has a fascinating gallery of medieval and Renaissance art, including armor and weaponry from the 15th and 16th centuries. The Asian galleries are breathtaking, as are the immense collections of African and Islamic art. And don&amp;#39;t leave without taking in the spectacular Modern Art wing on the third floor, which boasts works by Picasso, Matisse and Allbright. &lt;br&gt;&lt;br&gt;The Art Institute of Chicago is one of America&amp;#39;s greatest treasures, and a must for anyone spending time in the Windy City. You&amp;#39;ll leave enriched beyond measure, with a new appreciation for America&amp;#39;s artistic cultural heritage and place in the pantheon of world art.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Jemmie W.</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>One of the best art museums anywhere in the world and it&amp;#39;s right here in Chicago.&lt;br&gt;&lt;br&gt;The most important things here are the pieces that you know and love from &amp;#34;Ferris Bueller&amp;#39;s Day Off&amp;#34;. The other pieces are not that bad either.&lt;br&gt;&lt;br&gt;And if you are a member here you get to go to the following art museums for free:&lt;br&gt;&lt;br&gt;Cincinnati Art Museum &lt;br&gt;Cleveland Museum of Art &lt;br&gt;Dallas Museum of Art &lt;br&gt;High Museum of Art (Atlanta) &lt;br&gt;Los Angeles County Museum of Art &lt;br&gt;The Minneapolis Institute of Arts &lt;br&gt;Museum of Fine Arts, Boston &lt;br&gt;Museum of Fine Arts, Houston &lt;br&gt;The Nelson-Atkins Museum of Art (Kansas City, Missouri) &lt;br&gt;Philadelphia Museum of Art &lt;br&gt;Saint Louis Art Museum &lt;br&gt;The Toledo Museum of Art &lt;br&gt;Vancouver Art Gallery &lt;br&gt;Walker Art Center (Minneapolis) &lt;br&gt;Whitney Museum of American Art&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Vincent L.</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>One of the finest museums in America, the Art Institute not only features iconic American works like Grant Wood&amp;#39;s &amp;#34;American Gothic&amp;#34; and Edward Hopper&amp;#39;s &amp;#34;Nighthawks,&amp;#34; but also has a world-class Impressionist collection featuring works from artists like Monet, Seurat, van Gogh, Picasso, and Degas, as well as collections from all over the world. &lt;br&gt;&lt;br&gt;The galleries stretch across two buildings connected by pedestrian bridges hovering over train tracks. In addition to the paintings and sculpture on display, there&amp;#39;s even a salvaged portion of the old Chicago Stock Exchange on display here. It&amp;#39;s all compact enough for a brief visit if you only want to skim the highlights, but there&amp;#39;s more than enough to see here to last a whole day. Well worth a visit if you&amp;#39;re an art lover.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sherry L.</t>
+  </si>
+  <si>
+    <t>Definitely worth seeing if you visit Chicago!! They have AMAZING pieces and the upkeep of the museum is fantastic as well. The impressionist gallery stood out to me as having a number of iconic pieces from the masters of that time.  Seurat&amp;#39;s A Sunday on La Grande Jatte, Renoir&amp;#39;s Sisters on a Terrace, and Toulouse-Lautrec&amp;#39;s Moulin Rouge were some of my favorites. The only gallery that I found a bit lacking was the modern art section - I&amp;#39;m not sure if I missed a huge chunk of their pieces but it didn&amp;#39;t seem like they had much.&lt;br&gt;&lt;br&gt;Don&amp;#39;t skip the miniature exhibit and the glass paperweights exhibit on the lower level!! I almost missed these because I was in a rush to beat the aquarium&amp;#39;s closing time, but luckily I decided to hit the restroom on the way out and saw these two exhibits downstairs. The miniature exhibit was probably my favorite exhibit - I don&amp;#39;t know how they get everything to look so realistic at such a tiny scale, down to the &amp;#39;outdoor&amp;#39; lighting!&lt;br&gt;&lt;br&gt;I would recommend buying a CityPass and gaining faster access that way. The general admission line was ridiculously long when I arrived! I got to skip all of that AND had a guided audio tour included - I didn&amp;#39;t think I would enjoy it as much as I did, but it was fantastic and so educational.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Natalie R.</t>
+  </si>
+  <si>
+    <t>12/8/2017</t>
+  </si>
+  <si>
+    <t>Such an amazing art museum! I was thrilled to see the Impressionists exhibit, Picasso, Munch, Dali, and American Gothic. So much beautiful art! I look forward to planning my next visit. The architecture of the museum is beautiful and extremely clean. The staff were helpful when needed and maintained appropriate observation as needed.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Austin T.</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>It&amp;#39;s impressive that such large museum is accessible right in the middle of the city! There are so many different exhibits here, from Asian paintings/sculptures to European paintings/sculptures to modern paintings/sculptures, you&amp;#39;ll be able to find anything you&amp;#39;re interested in!&lt;br&gt;&lt;br&gt;I really enjoyed the miniature architecture exhibit on the bottom floor -- everything is so detailed and it really feels like you&amp;#39;re looking into the house of a tiny person in those time periods. Of course, the classic Van Gogh, Monet, Rodin works are always a hit and beautiful to look at. The modern art sections are definitely... different... and won&amp;#39;t appeal to everyone. But that&amp;#39;s what makes art great!&lt;br&gt;&lt;br&gt;There is so much to see here, and the museum is very accessible! We were able to spend about 2 hours here and weren&amp;#39;t even able to see everything! Definitely worth a visit for the art enthusiasts!&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -855,7 +2178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H221"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2444,6 +3767,4166 @@
         <v>155</v>
       </c>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62">
+        <v>4.5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63">
+        <v>4.5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64">
+        <v>4.5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65">
+        <v>4.5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66">
+        <v>4.5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>165</v>
+      </c>
+      <c r="H66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67">
+        <v>4.5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>165</v>
+      </c>
+      <c r="H67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68">
+        <v>4.5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69">
+        <v>4.5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" t="s">
+        <v>173</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>108</v>
+      </c>
+      <c r="H69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70">
+        <v>4.5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71">
+        <v>4.5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>129</v>
+      </c>
+      <c r="H71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72">
+        <v>4.5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>157</v>
+      </c>
+      <c r="E72" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73">
+        <v>4.5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74">
+        <v>4.5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>157</v>
+      </c>
+      <c r="E74" t="s">
+        <v>183</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
+        <v>184</v>
+      </c>
+      <c r="H74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75">
+        <v>4.5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>187</v>
+      </c>
+      <c r="H75" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76">
+        <v>4.5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>157</v>
+      </c>
+      <c r="E76" t="s">
+        <v>189</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>190</v>
+      </c>
+      <c r="H76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77">
+        <v>4.5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78">
+        <v>4.5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>195</v>
+      </c>
+      <c r="H78" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79">
+        <v>4.5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>195</v>
+      </c>
+      <c r="H79" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80">
+        <v>4.5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" t="s">
+        <v>199</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>200</v>
+      </c>
+      <c r="H80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81">
+        <v>4.5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>157</v>
+      </c>
+      <c r="E81" t="s">
+        <v>202</v>
+      </c>
+      <c r="F81" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" t="s">
+        <v>203</v>
+      </c>
+      <c r="H81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82">
+        <v>4.5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>206</v>
+      </c>
+      <c r="H82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83">
+        <v>4.5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>157</v>
+      </c>
+      <c r="E83" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>206</v>
+      </c>
+      <c r="H83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84">
+        <v>4.5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>211</v>
+      </c>
+      <c r="H84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85">
+        <v>4.5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>157</v>
+      </c>
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s">
+        <v>214</v>
+      </c>
+      <c r="H85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86">
+        <v>4.5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>157</v>
+      </c>
+      <c r="E86" t="s">
+        <v>216</v>
+      </c>
+      <c r="F86" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" t="s">
+        <v>214</v>
+      </c>
+      <c r="H86" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87">
+        <v>4.5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>157</v>
+      </c>
+      <c r="E87" t="s">
+        <v>218</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>219</v>
+      </c>
+      <c r="H87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88">
+        <v>4.5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" t="s">
+        <v>221</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>222</v>
+      </c>
+      <c r="H88" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89">
+        <v>4.5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89" t="s">
+        <v>224</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>225</v>
+      </c>
+      <c r="H89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90">
+        <v>4.5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" t="s">
+        <v>227</v>
+      </c>
+      <c r="F90" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" t="s">
+        <v>228</v>
+      </c>
+      <c r="H90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91">
+        <v>4.5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" t="s">
+        <v>228</v>
+      </c>
+      <c r="H91" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92">
+        <v>4.5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" t="s">
+        <v>232</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>233</v>
+      </c>
+      <c r="H92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93">
+        <v>4.5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>157</v>
+      </c>
+      <c r="E93" t="s">
+        <v>235</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>236</v>
+      </c>
+      <c r="H93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94">
+        <v>4.5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" t="s">
+        <v>238</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>239</v>
+      </c>
+      <c r="H94" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>156</v>
+      </c>
+      <c r="C95">
+        <v>4.5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" t="s">
+        <v>241</v>
+      </c>
+      <c r="F95" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" t="s">
+        <v>242</v>
+      </c>
+      <c r="H95" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>156</v>
+      </c>
+      <c r="C96">
+        <v>4.5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" t="s">
+        <v>244</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>245</v>
+      </c>
+      <c r="H96" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97">
+        <v>4.5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" t="s">
+        <v>247</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>245</v>
+      </c>
+      <c r="H97" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>156</v>
+      </c>
+      <c r="C98">
+        <v>4.5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" t="s">
+        <v>249</v>
+      </c>
+      <c r="F98" t="s">
+        <v>98</v>
+      </c>
+      <c r="G98" t="s">
+        <v>250</v>
+      </c>
+      <c r="H98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99">
+        <v>4.5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>157</v>
+      </c>
+      <c r="E99" t="s">
+        <v>252</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>253</v>
+      </c>
+      <c r="H99" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100">
+        <v>4.5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E100" t="s">
+        <v>255</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>256</v>
+      </c>
+      <c r="H100" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101">
+        <v>4.5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>157</v>
+      </c>
+      <c r="E101" t="s">
+        <v>258</v>
+      </c>
+      <c r="F101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>259</v>
+      </c>
+      <c r="H101" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>156</v>
+      </c>
+      <c r="C102">
+        <v>4.5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>157</v>
+      </c>
+      <c r="E102" t="s">
+        <v>261</v>
+      </c>
+      <c r="F102" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" t="s">
+        <v>259</v>
+      </c>
+      <c r="H102" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103">
+        <v>4.5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>157</v>
+      </c>
+      <c r="E103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F103" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>264</v>
+      </c>
+      <c r="H103" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104">
+        <v>4.5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>157</v>
+      </c>
+      <c r="E104" t="s">
+        <v>266</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>267</v>
+      </c>
+      <c r="H104" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105">
+        <v>4.5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>157</v>
+      </c>
+      <c r="E105" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>270</v>
+      </c>
+      <c r="H105" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106">
+        <v>4.5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>157</v>
+      </c>
+      <c r="E106" t="s">
+        <v>272</v>
+      </c>
+      <c r="F106" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" t="s">
+        <v>273</v>
+      </c>
+      <c r="H106" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107">
+        <v>4.5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>157</v>
+      </c>
+      <c r="E107" t="s">
+        <v>275</v>
+      </c>
+      <c r="F107" t="s">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>273</v>
+      </c>
+      <c r="H107" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108">
+        <v>4.5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" t="s">
+        <v>277</v>
+      </c>
+      <c r="F108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>278</v>
+      </c>
+      <c r="H108" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109">
+        <v>4.5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>157</v>
+      </c>
+      <c r="E109" t="s">
+        <v>280</v>
+      </c>
+      <c r="F109" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>278</v>
+      </c>
+      <c r="H109" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110">
+        <v>4.5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>157</v>
+      </c>
+      <c r="E110" t="s">
+        <v>282</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" t="s">
+        <v>283</v>
+      </c>
+      <c r="H110" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111">
+        <v>4.5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>157</v>
+      </c>
+      <c r="E111" t="s">
+        <v>285</v>
+      </c>
+      <c r="F111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>283</v>
+      </c>
+      <c r="H111" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112">
+        <v>4.5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>157</v>
+      </c>
+      <c r="E112" t="s">
+        <v>287</v>
+      </c>
+      <c r="F112" t="s">
+        <v>98</v>
+      </c>
+      <c r="G112" t="s">
+        <v>288</v>
+      </c>
+      <c r="H112" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113">
+        <v>4.5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>157</v>
+      </c>
+      <c r="E113" t="s">
+        <v>290</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>291</v>
+      </c>
+      <c r="H113" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114">
+        <v>4.5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>157</v>
+      </c>
+      <c r="E114" t="s">
+        <v>293</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>294</v>
+      </c>
+      <c r="H114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115">
+        <v>4.5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>157</v>
+      </c>
+      <c r="E115" t="s">
+        <v>296</v>
+      </c>
+      <c r="F115" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" t="s">
+        <v>297</v>
+      </c>
+      <c r="H115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>156</v>
+      </c>
+      <c r="C116">
+        <v>4.5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>157</v>
+      </c>
+      <c r="E116" t="s">
+        <v>299</v>
+      </c>
+      <c r="F116" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>297</v>
+      </c>
+      <c r="H116" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117">
+        <v>4.5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>157</v>
+      </c>
+      <c r="E117" t="s">
+        <v>301</v>
+      </c>
+      <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
+        <v>302</v>
+      </c>
+      <c r="H117" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118">
+        <v>4.5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118" t="s">
+        <v>304</v>
+      </c>
+      <c r="F118" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" t="s">
+        <v>305</v>
+      </c>
+      <c r="H118" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119">
+        <v>4.5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>157</v>
+      </c>
+      <c r="E119" t="s">
+        <v>307</v>
+      </c>
+      <c r="F119" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>308</v>
+      </c>
+      <c r="H119" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120">
+        <v>4.5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>157</v>
+      </c>
+      <c r="E120" t="s">
+        <v>310</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" t="s">
+        <v>311</v>
+      </c>
+      <c r="H120" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121">
+        <v>4.5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>157</v>
+      </c>
+      <c r="E121" t="s">
+        <v>313</v>
+      </c>
+      <c r="F121" t="s">
+        <v>36</v>
+      </c>
+      <c r="G121" t="s">
+        <v>314</v>
+      </c>
+      <c r="H121" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>156</v>
+      </c>
+      <c r="C122">
+        <v>4.5</v>
+      </c>
+      <c r="D122" t="s">
+        <v>157</v>
+      </c>
+      <c r="E122" t="s">
+        <v>316</v>
+      </c>
+      <c r="F122" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" t="s">
+        <v>317</v>
+      </c>
+      <c r="H122" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>156</v>
+      </c>
+      <c r="C123">
+        <v>4.5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>157</v>
+      </c>
+      <c r="E123" t="s">
+        <v>319</v>
+      </c>
+      <c r="F123" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
+        <v>320</v>
+      </c>
+      <c r="H123" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124">
+        <v>4.5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>157</v>
+      </c>
+      <c r="E124" t="s">
+        <v>322</v>
+      </c>
+      <c r="F124" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" t="s">
+        <v>323</v>
+      </c>
+      <c r="H124" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>156</v>
+      </c>
+      <c r="C125">
+        <v>4.5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>157</v>
+      </c>
+      <c r="E125" t="s">
+        <v>325</v>
+      </c>
+      <c r="F125" t="s">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>326</v>
+      </c>
+      <c r="H125" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126">
+        <v>4.5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>157</v>
+      </c>
+      <c r="E126" t="s">
+        <v>328</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>329</v>
+      </c>
+      <c r="H126" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127">
+        <v>4.5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>157</v>
+      </c>
+      <c r="E127" t="s">
+        <v>331</v>
+      </c>
+      <c r="F127" t="s">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>332</v>
+      </c>
+      <c r="H127" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128">
+        <v>4.5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>157</v>
+      </c>
+      <c r="E128" t="s">
+        <v>334</v>
+      </c>
+      <c r="F128" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" t="s">
+        <v>335</v>
+      </c>
+      <c r="H128" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129">
+        <v>4.5</v>
+      </c>
+      <c r="D129" t="s">
+        <v>157</v>
+      </c>
+      <c r="E129" t="s">
+        <v>337</v>
+      </c>
+      <c r="F129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>338</v>
+      </c>
+      <c r="H129" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130">
+        <v>4.5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>157</v>
+      </c>
+      <c r="E130" t="s">
+        <v>340</v>
+      </c>
+      <c r="F130" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>338</v>
+      </c>
+      <c r="H130" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131">
+        <v>4.5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>157</v>
+      </c>
+      <c r="E131" t="s">
+        <v>342</v>
+      </c>
+      <c r="F131" t="s">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>343</v>
+      </c>
+      <c r="H131" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>156</v>
+      </c>
+      <c r="C132">
+        <v>4.5</v>
+      </c>
+      <c r="D132" t="s">
+        <v>157</v>
+      </c>
+      <c r="E132" t="s">
+        <v>345</v>
+      </c>
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" t="s">
+        <v>346</v>
+      </c>
+      <c r="H132" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>156</v>
+      </c>
+      <c r="C133">
+        <v>4.5</v>
+      </c>
+      <c r="D133" t="s">
+        <v>157</v>
+      </c>
+      <c r="E133" t="s">
+        <v>348</v>
+      </c>
+      <c r="F133" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>349</v>
+      </c>
+      <c r="H133" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134">
+        <v>4.5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>157</v>
+      </c>
+      <c r="E134" t="s">
+        <v>351</v>
+      </c>
+      <c r="F134" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>352</v>
+      </c>
+      <c r="H134" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
+        <v>156</v>
+      </c>
+      <c r="C135">
+        <v>4.5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>157</v>
+      </c>
+      <c r="E135" t="s">
+        <v>354</v>
+      </c>
+      <c r="F135" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>355</v>
+      </c>
+      <c r="H135" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>156</v>
+      </c>
+      <c r="C136">
+        <v>4.5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>157</v>
+      </c>
+      <c r="E136" t="s">
+        <v>357</v>
+      </c>
+      <c r="F136" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>358</v>
+      </c>
+      <c r="H136" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137">
+        <v>4.5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" t="s">
+        <v>360</v>
+      </c>
+      <c r="F137" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137" t="s">
+        <v>358</v>
+      </c>
+      <c r="H137" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>156</v>
+      </c>
+      <c r="C138">
+        <v>4.5</v>
+      </c>
+      <c r="D138" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" t="s">
+        <v>362</v>
+      </c>
+      <c r="F138" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
+        <v>363</v>
+      </c>
+      <c r="H138" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>156</v>
+      </c>
+      <c r="C139">
+        <v>4.5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" t="s">
+        <v>365</v>
+      </c>
+      <c r="F139" t="s">
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>366</v>
+      </c>
+      <c r="H139" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>156</v>
+      </c>
+      <c r="C140">
+        <v>4.5</v>
+      </c>
+      <c r="D140" t="s">
+        <v>157</v>
+      </c>
+      <c r="E140" t="s">
+        <v>368</v>
+      </c>
+      <c r="F140" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140" t="s">
+        <v>366</v>
+      </c>
+      <c r="H140" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>156</v>
+      </c>
+      <c r="C141">
+        <v>4.5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>157</v>
+      </c>
+      <c r="E141" t="s">
+        <v>370</v>
+      </c>
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>371</v>
+      </c>
+      <c r="H141" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142">
+        <v>4.5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>157</v>
+      </c>
+      <c r="E142" t="s">
+        <v>373</v>
+      </c>
+      <c r="F142" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>371</v>
+      </c>
+      <c r="H142" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>156</v>
+      </c>
+      <c r="C143">
+        <v>4.5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>157</v>
+      </c>
+      <c r="E143" t="s">
+        <v>375</v>
+      </c>
+      <c r="F143" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>376</v>
+      </c>
+      <c r="H143" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144">
+        <v>4.5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>157</v>
+      </c>
+      <c r="E144" t="s">
+        <v>378</v>
+      </c>
+      <c r="F144" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" t="s">
+        <v>376</v>
+      </c>
+      <c r="H144" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145">
+        <v>4.5</v>
+      </c>
+      <c r="D145" t="s">
+        <v>157</v>
+      </c>
+      <c r="E145" t="s">
+        <v>380</v>
+      </c>
+      <c r="F145" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>381</v>
+      </c>
+      <c r="H145" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146">
+        <v>4.5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>157</v>
+      </c>
+      <c r="E146" t="s">
+        <v>383</v>
+      </c>
+      <c r="F146" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>384</v>
+      </c>
+      <c r="H146" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147">
+        <v>4.5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>157</v>
+      </c>
+      <c r="E147" t="s">
+        <v>386</v>
+      </c>
+      <c r="F147" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" t="s">
+        <v>387</v>
+      </c>
+      <c r="H147" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148">
+        <v>4.5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>157</v>
+      </c>
+      <c r="E148" t="s">
+        <v>389</v>
+      </c>
+      <c r="F148" t="s">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>387</v>
+      </c>
+      <c r="H148" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>156</v>
+      </c>
+      <c r="C149">
+        <v>4.5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" t="s">
+        <v>391</v>
+      </c>
+      <c r="F149" t="s">
+        <v>132</v>
+      </c>
+      <c r="G149" t="s">
+        <v>392</v>
+      </c>
+      <c r="H149" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>156</v>
+      </c>
+      <c r="C150">
+        <v>4.5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>157</v>
+      </c>
+      <c r="E150" t="s">
+        <v>394</v>
+      </c>
+      <c r="F150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>392</v>
+      </c>
+      <c r="H150" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151">
+        <v>4.5</v>
+      </c>
+      <c r="D151" t="s">
+        <v>157</v>
+      </c>
+      <c r="E151" t="s">
+        <v>396</v>
+      </c>
+      <c r="F151" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>397</v>
+      </c>
+      <c r="H151" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152">
+        <v>4.5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>157</v>
+      </c>
+      <c r="E152" t="s">
+        <v>399</v>
+      </c>
+      <c r="F152" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>400</v>
+      </c>
+      <c r="H152" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153">
+        <v>4.5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>157</v>
+      </c>
+      <c r="E153" t="s">
+        <v>402</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>403</v>
+      </c>
+      <c r="H153" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154">
+        <v>4.5</v>
+      </c>
+      <c r="D154" t="s">
+        <v>157</v>
+      </c>
+      <c r="E154" t="s">
+        <v>405</v>
+      </c>
+      <c r="F154" t="s">
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>403</v>
+      </c>
+      <c r="H154" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155">
+        <v>4.5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>157</v>
+      </c>
+      <c r="E155" t="s">
+        <v>407</v>
+      </c>
+      <c r="F155" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>408</v>
+      </c>
+      <c r="H155" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156">
+        <v>4.5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>157</v>
+      </c>
+      <c r="E156" t="s">
+        <v>410</v>
+      </c>
+      <c r="F156" t="s">
+        <v>36</v>
+      </c>
+      <c r="G156" t="s">
+        <v>411</v>
+      </c>
+      <c r="H156" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <v>4.5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>157</v>
+      </c>
+      <c r="E157" t="s">
+        <v>413</v>
+      </c>
+      <c r="F157" t="s">
+        <v>36</v>
+      </c>
+      <c r="G157" t="s">
+        <v>414</v>
+      </c>
+      <c r="H157" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <v>4.5</v>
+      </c>
+      <c r="D158" t="s">
+        <v>157</v>
+      </c>
+      <c r="E158" t="s">
+        <v>416</v>
+      </c>
+      <c r="F158" t="s">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>417</v>
+      </c>
+      <c r="H158" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>156</v>
+      </c>
+      <c r="C159">
+        <v>4.5</v>
+      </c>
+      <c r="D159" t="s">
+        <v>157</v>
+      </c>
+      <c r="E159" t="s">
+        <v>419</v>
+      </c>
+      <c r="F159" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
+        <v>417</v>
+      </c>
+      <c r="H159" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>156</v>
+      </c>
+      <c r="C160">
+        <v>4.5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>157</v>
+      </c>
+      <c r="E160" t="s">
+        <v>421</v>
+      </c>
+      <c r="F160" t="s">
+        <v>36</v>
+      </c>
+      <c r="G160" t="s">
+        <v>422</v>
+      </c>
+      <c r="H160" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>156</v>
+      </c>
+      <c r="C161">
+        <v>4.5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>157</v>
+      </c>
+      <c r="E161" t="s">
+        <v>424</v>
+      </c>
+      <c r="F161" t="s">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>425</v>
+      </c>
+      <c r="H161" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>156</v>
+      </c>
+      <c r="C162">
+        <v>4.5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>157</v>
+      </c>
+      <c r="E162" t="s">
+        <v>427</v>
+      </c>
+      <c r="F162" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" t="s">
+        <v>428</v>
+      </c>
+      <c r="H162" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>156</v>
+      </c>
+      <c r="C163">
+        <v>4.5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>157</v>
+      </c>
+      <c r="E163" t="s">
+        <v>430</v>
+      </c>
+      <c r="F163" t="s">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>431</v>
+      </c>
+      <c r="H163" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>156</v>
+      </c>
+      <c r="C164">
+        <v>4.5</v>
+      </c>
+      <c r="D164" t="s">
+        <v>157</v>
+      </c>
+      <c r="E164" t="s">
+        <v>433</v>
+      </c>
+      <c r="F164" t="s">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>431</v>
+      </c>
+      <c r="H164" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>156</v>
+      </c>
+      <c r="C165">
+        <v>4.5</v>
+      </c>
+      <c r="D165" t="s">
+        <v>157</v>
+      </c>
+      <c r="E165" t="s">
+        <v>435</v>
+      </c>
+      <c r="F165" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>436</v>
+      </c>
+      <c r="H165" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>156</v>
+      </c>
+      <c r="C166">
+        <v>4.5</v>
+      </c>
+      <c r="D166" t="s">
+        <v>157</v>
+      </c>
+      <c r="E166" t="s">
+        <v>438</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>439</v>
+      </c>
+      <c r="H166" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167">
+        <v>4.5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>157</v>
+      </c>
+      <c r="E167" t="s">
+        <v>441</v>
+      </c>
+      <c r="F167" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>439</v>
+      </c>
+      <c r="H167" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168">
+        <v>4.5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>157</v>
+      </c>
+      <c r="E168" t="s">
+        <v>443</v>
+      </c>
+      <c r="F168" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>444</v>
+      </c>
+      <c r="H168" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>156</v>
+      </c>
+      <c r="C169">
+        <v>4.5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>157</v>
+      </c>
+      <c r="E169" t="s">
+        <v>446</v>
+      </c>
+      <c r="F169" t="s">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>447</v>
+      </c>
+      <c r="H169" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>156</v>
+      </c>
+      <c r="C170">
+        <v>4.5</v>
+      </c>
+      <c r="D170" t="s">
+        <v>157</v>
+      </c>
+      <c r="E170" t="s">
+        <v>449</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>450</v>
+      </c>
+      <c r="H170" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>156</v>
+      </c>
+      <c r="C171">
+        <v>4.5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>157</v>
+      </c>
+      <c r="E171" t="s">
+        <v>452</v>
+      </c>
+      <c r="F171" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>450</v>
+      </c>
+      <c r="H171" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
+        <v>156</v>
+      </c>
+      <c r="C172">
+        <v>4.5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>157</v>
+      </c>
+      <c r="E172" t="s">
+        <v>454</v>
+      </c>
+      <c r="F172" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>455</v>
+      </c>
+      <c r="H172" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
+        <v>156</v>
+      </c>
+      <c r="C173">
+        <v>4.5</v>
+      </c>
+      <c r="D173" t="s">
+        <v>157</v>
+      </c>
+      <c r="E173" t="s">
+        <v>457</v>
+      </c>
+      <c r="F173" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" t="s">
+        <v>455</v>
+      </c>
+      <c r="H173" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>156</v>
+      </c>
+      <c r="C174">
+        <v>4.5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>157</v>
+      </c>
+      <c r="E174" t="s">
+        <v>459</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>460</v>
+      </c>
+      <c r="H174" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
+        <v>156</v>
+      </c>
+      <c r="C175">
+        <v>4.5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>157</v>
+      </c>
+      <c r="E175" t="s">
+        <v>462</v>
+      </c>
+      <c r="F175" t="s">
+        <v>98</v>
+      </c>
+      <c r="G175" t="s">
+        <v>463</v>
+      </c>
+      <c r="H175" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176">
+        <v>4.5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>157</v>
+      </c>
+      <c r="E176" t="s">
+        <v>465</v>
+      </c>
+      <c r="F176" t="s">
+        <v>36</v>
+      </c>
+      <c r="G176" t="s">
+        <v>466</v>
+      </c>
+      <c r="H176" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
+        <v>156</v>
+      </c>
+      <c r="C177">
+        <v>4.5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>157</v>
+      </c>
+      <c r="E177" t="s">
+        <v>468</v>
+      </c>
+      <c r="F177" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>466</v>
+      </c>
+      <c r="H177" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
+        <v>156</v>
+      </c>
+      <c r="C178">
+        <v>4.5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>157</v>
+      </c>
+      <c r="E178" t="s">
+        <v>470</v>
+      </c>
+      <c r="F178" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>471</v>
+      </c>
+      <c r="H178" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>156</v>
+      </c>
+      <c r="C179">
+        <v>4.5</v>
+      </c>
+      <c r="D179" t="s">
+        <v>157</v>
+      </c>
+      <c r="E179" t="s">
+        <v>473</v>
+      </c>
+      <c r="F179" t="s">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>471</v>
+      </c>
+      <c r="H179" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" t="s">
+        <v>156</v>
+      </c>
+      <c r="C180">
+        <v>4.5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>157</v>
+      </c>
+      <c r="E180" t="s">
+        <v>475</v>
+      </c>
+      <c r="F180" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>471</v>
+      </c>
+      <c r="H180" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" t="s">
+        <v>156</v>
+      </c>
+      <c r="C181">
+        <v>4.5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>157</v>
+      </c>
+      <c r="E181" t="s">
+        <v>477</v>
+      </c>
+      <c r="F181" t="s">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>478</v>
+      </c>
+      <c r="H181" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>156</v>
+      </c>
+      <c r="C182">
+        <v>4.5</v>
+      </c>
+      <c r="D182" t="s">
+        <v>157</v>
+      </c>
+      <c r="E182" t="s">
+        <v>480</v>
+      </c>
+      <c r="F182" t="s">
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
+        <v>481</v>
+      </c>
+      <c r="H182" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" t="s">
+        <v>156</v>
+      </c>
+      <c r="C183">
+        <v>4.5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>157</v>
+      </c>
+      <c r="E183" t="s">
+        <v>483</v>
+      </c>
+      <c r="F183" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183" t="s">
+        <v>484</v>
+      </c>
+      <c r="H183" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>156</v>
+      </c>
+      <c r="C184">
+        <v>4.5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>157</v>
+      </c>
+      <c r="E184" t="s">
+        <v>486</v>
+      </c>
+      <c r="F184" t="s">
+        <v>17</v>
+      </c>
+      <c r="G184" t="s">
+        <v>487</v>
+      </c>
+      <c r="H184" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>156</v>
+      </c>
+      <c r="C185">
+        <v>4.5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>157</v>
+      </c>
+      <c r="E185" t="s">
+        <v>489</v>
+      </c>
+      <c r="F185" t="s">
+        <v>36</v>
+      </c>
+      <c r="G185" t="s">
+        <v>490</v>
+      </c>
+      <c r="H185" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>156</v>
+      </c>
+      <c r="C186">
+        <v>4.5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>157</v>
+      </c>
+      <c r="E186" t="s">
+        <v>492</v>
+      </c>
+      <c r="F186" t="s">
+        <v>17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>493</v>
+      </c>
+      <c r="H186" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>156</v>
+      </c>
+      <c r="C187">
+        <v>4.5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>157</v>
+      </c>
+      <c r="E187" t="s">
+        <v>495</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>496</v>
+      </c>
+      <c r="H187" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>156</v>
+      </c>
+      <c r="C188">
+        <v>4.5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>157</v>
+      </c>
+      <c r="E188" t="s">
+        <v>498</v>
+      </c>
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>499</v>
+      </c>
+      <c r="H188" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>156</v>
+      </c>
+      <c r="C189">
+        <v>4.5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>157</v>
+      </c>
+      <c r="E189" t="s">
+        <v>501</v>
+      </c>
+      <c r="F189" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189" t="s">
+        <v>502</v>
+      </c>
+      <c r="H189" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>156</v>
+      </c>
+      <c r="C190">
+        <v>4.5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>157</v>
+      </c>
+      <c r="E190" t="s">
+        <v>504</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>505</v>
+      </c>
+      <c r="H190" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>156</v>
+      </c>
+      <c r="C191">
+        <v>4.5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>157</v>
+      </c>
+      <c r="E191" t="s">
+        <v>507</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>508</v>
+      </c>
+      <c r="H191" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>156</v>
+      </c>
+      <c r="C192">
+        <v>4.5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>157</v>
+      </c>
+      <c r="E192" t="s">
+        <v>510</v>
+      </c>
+      <c r="F192" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192" t="s">
+        <v>511</v>
+      </c>
+      <c r="H192" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>156</v>
+      </c>
+      <c r="C193">
+        <v>4.5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>157</v>
+      </c>
+      <c r="E193" t="s">
+        <v>513</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>514</v>
+      </c>
+      <c r="H193" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>156</v>
+      </c>
+      <c r="C194">
+        <v>4.5</v>
+      </c>
+      <c r="D194" t="s">
+        <v>157</v>
+      </c>
+      <c r="E194" t="s">
+        <v>516</v>
+      </c>
+      <c r="F194" t="s">
+        <v>36</v>
+      </c>
+      <c r="G194" t="s">
+        <v>517</v>
+      </c>
+      <c r="H194" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>156</v>
+      </c>
+      <c r="C195">
+        <v>4.5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>157</v>
+      </c>
+      <c r="E195" t="s">
+        <v>519</v>
+      </c>
+      <c r="F195" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" t="s">
+        <v>520</v>
+      </c>
+      <c r="H195" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>156</v>
+      </c>
+      <c r="C196">
+        <v>4.5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>157</v>
+      </c>
+      <c r="E196" t="s">
+        <v>522</v>
+      </c>
+      <c r="F196" t="s">
+        <v>17</v>
+      </c>
+      <c r="G196" t="s">
+        <v>523</v>
+      </c>
+      <c r="H196" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>156</v>
+      </c>
+      <c r="C197">
+        <v>4.5</v>
+      </c>
+      <c r="D197" t="s">
+        <v>157</v>
+      </c>
+      <c r="E197" t="s">
+        <v>525</v>
+      </c>
+      <c r="F197" t="s">
+        <v>17</v>
+      </c>
+      <c r="G197" t="s">
+        <v>526</v>
+      </c>
+      <c r="H197" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>156</v>
+      </c>
+      <c r="C198">
+        <v>4.5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>157</v>
+      </c>
+      <c r="E198" t="s">
+        <v>528</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" t="s">
+        <v>529</v>
+      </c>
+      <c r="H198" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>156</v>
+      </c>
+      <c r="C199">
+        <v>4.5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>157</v>
+      </c>
+      <c r="E199" t="s">
+        <v>531</v>
+      </c>
+      <c r="F199" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199" t="s">
+        <v>532</v>
+      </c>
+      <c r="H199" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>156</v>
+      </c>
+      <c r="C200">
+        <v>4.5</v>
+      </c>
+      <c r="D200" t="s">
+        <v>157</v>
+      </c>
+      <c r="E200" t="s">
+        <v>495</v>
+      </c>
+      <c r="F200" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" t="s">
+        <v>534</v>
+      </c>
+      <c r="H200" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>156</v>
+      </c>
+      <c r="C201">
+        <v>4.5</v>
+      </c>
+      <c r="D201" t="s">
+        <v>157</v>
+      </c>
+      <c r="E201" t="s">
+        <v>536</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" t="s">
+        <v>537</v>
+      </c>
+      <c r="H201" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>156</v>
+      </c>
+      <c r="C202">
+        <v>4.5</v>
+      </c>
+      <c r="D202" t="s">
+        <v>157</v>
+      </c>
+      <c r="E202" t="s">
+        <v>539</v>
+      </c>
+      <c r="F202" t="s">
+        <v>17</v>
+      </c>
+      <c r="G202" t="s">
+        <v>540</v>
+      </c>
+      <c r="H202" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203" t="s">
+        <v>156</v>
+      </c>
+      <c r="C203">
+        <v>4.5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>157</v>
+      </c>
+      <c r="E203" t="s">
+        <v>542</v>
+      </c>
+      <c r="F203" t="s">
+        <v>17</v>
+      </c>
+      <c r="G203" t="s">
+        <v>543</v>
+      </c>
+      <c r="H203" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204" t="s">
+        <v>156</v>
+      </c>
+      <c r="C204">
+        <v>4.5</v>
+      </c>
+      <c r="D204" t="s">
+        <v>157</v>
+      </c>
+      <c r="E204" t="s">
+        <v>545</v>
+      </c>
+      <c r="F204" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" t="s">
+        <v>543</v>
+      </c>
+      <c r="H204" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" t="s">
+        <v>156</v>
+      </c>
+      <c r="C205">
+        <v>4.5</v>
+      </c>
+      <c r="D205" t="s">
+        <v>157</v>
+      </c>
+      <c r="E205" t="s">
+        <v>547</v>
+      </c>
+      <c r="F205" t="s">
+        <v>17</v>
+      </c>
+      <c r="G205" t="s">
+        <v>548</v>
+      </c>
+      <c r="H205" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" t="s">
+        <v>156</v>
+      </c>
+      <c r="C206">
+        <v>4.5</v>
+      </c>
+      <c r="D206" t="s">
+        <v>157</v>
+      </c>
+      <c r="E206" t="s">
+        <v>550</v>
+      </c>
+      <c r="F206" t="s">
+        <v>17</v>
+      </c>
+      <c r="G206" t="s">
+        <v>551</v>
+      </c>
+      <c r="H206" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>156</v>
+      </c>
+      <c r="C207">
+        <v>4.5</v>
+      </c>
+      <c r="D207" t="s">
+        <v>157</v>
+      </c>
+      <c r="E207" t="s">
+        <v>553</v>
+      </c>
+      <c r="F207" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207" t="s">
+        <v>554</v>
+      </c>
+      <c r="H207" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>156</v>
+      </c>
+      <c r="C208">
+        <v>4.5</v>
+      </c>
+      <c r="D208" t="s">
+        <v>157</v>
+      </c>
+      <c r="E208" t="s">
+        <v>556</v>
+      </c>
+      <c r="F208" t="s">
+        <v>17</v>
+      </c>
+      <c r="G208" t="s">
+        <v>557</v>
+      </c>
+      <c r="H208" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" t="s">
+        <v>156</v>
+      </c>
+      <c r="C209">
+        <v>4.5</v>
+      </c>
+      <c r="D209" t="s">
+        <v>157</v>
+      </c>
+      <c r="E209" t="s">
+        <v>559</v>
+      </c>
+      <c r="F209" t="s">
+        <v>17</v>
+      </c>
+      <c r="G209" t="s">
+        <v>560</v>
+      </c>
+      <c r="H209" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>156</v>
+      </c>
+      <c r="C210">
+        <v>4.5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>157</v>
+      </c>
+      <c r="E210" t="s">
+        <v>562</v>
+      </c>
+      <c r="F210" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" t="s">
+        <v>563</v>
+      </c>
+      <c r="H210" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>156</v>
+      </c>
+      <c r="C211">
+        <v>4.5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>157</v>
+      </c>
+      <c r="E211" t="s">
+        <v>565</v>
+      </c>
+      <c r="F211" t="s">
+        <v>17</v>
+      </c>
+      <c r="G211" t="s">
+        <v>566</v>
+      </c>
+      <c r="H211" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>156</v>
+      </c>
+      <c r="C212">
+        <v>4.5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>157</v>
+      </c>
+      <c r="E212" t="s">
+        <v>568</v>
+      </c>
+      <c r="F212" t="s">
+        <v>36</v>
+      </c>
+      <c r="G212" t="s">
+        <v>569</v>
+      </c>
+      <c r="H212" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>156</v>
+      </c>
+      <c r="C213">
+        <v>4.5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>157</v>
+      </c>
+      <c r="E213" t="s">
+        <v>571</v>
+      </c>
+      <c r="F213" t="s">
+        <v>98</v>
+      </c>
+      <c r="G213" t="s">
+        <v>572</v>
+      </c>
+      <c r="H213" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>156</v>
+      </c>
+      <c r="C214">
+        <v>4.5</v>
+      </c>
+      <c r="D214" t="s">
+        <v>157</v>
+      </c>
+      <c r="E214" t="s">
+        <v>574</v>
+      </c>
+      <c r="F214" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" t="s">
+        <v>575</v>
+      </c>
+      <c r="H214" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s">
+        <v>156</v>
+      </c>
+      <c r="C215">
+        <v>4.5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>157</v>
+      </c>
+      <c r="E215" t="s">
+        <v>577</v>
+      </c>
+      <c r="F215" t="s">
+        <v>36</v>
+      </c>
+      <c r="G215" t="s">
+        <v>578</v>
+      </c>
+      <c r="H215" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>156</v>
+      </c>
+      <c r="C216">
+        <v>4.5</v>
+      </c>
+      <c r="D216" t="s">
+        <v>157</v>
+      </c>
+      <c r="E216" t="s">
+        <v>580</v>
+      </c>
+      <c r="F216" t="s">
+        <v>17</v>
+      </c>
+      <c r="G216" t="s">
+        <v>581</v>
+      </c>
+      <c r="H216" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" t="s">
+        <v>156</v>
+      </c>
+      <c r="C217">
+        <v>4.5</v>
+      </c>
+      <c r="D217" t="s">
+        <v>157</v>
+      </c>
+      <c r="E217" t="s">
+        <v>583</v>
+      </c>
+      <c r="F217" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" t="s">
+        <v>584</v>
+      </c>
+      <c r="H217" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" t="s">
+        <v>156</v>
+      </c>
+      <c r="C218">
+        <v>4.5</v>
+      </c>
+      <c r="D218" t="s">
+        <v>157</v>
+      </c>
+      <c r="E218" t="s">
+        <v>586</v>
+      </c>
+      <c r="F218" t="s">
+        <v>17</v>
+      </c>
+      <c r="G218" t="s">
+        <v>587</v>
+      </c>
+      <c r="H218" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>156</v>
+      </c>
+      <c r="C219">
+        <v>4.5</v>
+      </c>
+      <c r="D219" t="s">
+        <v>157</v>
+      </c>
+      <c r="E219" t="s">
+        <v>589</v>
+      </c>
+      <c r="F219" t="s">
+        <v>17</v>
+      </c>
+      <c r="G219" t="s">
+        <v>587</v>
+      </c>
+      <c r="H219" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" t="s">
+        <v>156</v>
+      </c>
+      <c r="C220">
+        <v>4.5</v>
+      </c>
+      <c r="D220" t="s">
+        <v>157</v>
+      </c>
+      <c r="E220" t="s">
+        <v>591</v>
+      </c>
+      <c r="F220" t="s">
+        <v>17</v>
+      </c>
+      <c r="G220" t="s">
+        <v>592</v>
+      </c>
+      <c r="H220" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221" t="s">
+        <v>156</v>
+      </c>
+      <c r="C221">
+        <v>4.5</v>
+      </c>
+      <c r="D221" t="s">
+        <v>157</v>
+      </c>
+      <c r="E221" t="s">
+        <v>594</v>
+      </c>
+      <c r="F221" t="s">
+        <v>17</v>
+      </c>
+      <c r="G221" t="s">
+        <v>595</v>
+      </c>
+      <c r="H221" t="s">
+        <v>596</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
